--- a/cost_model/cost_model.xlsx
+++ b/cost_model/cost_model.xlsx
@@ -5,27 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\Documents\ASE6002\ModelProject\cost_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\cost_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6444A6A2-F33E-4E77-809C-09451EE64464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A63F94-4A7C-426A-9420-4BF497FBB1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="3795" windowWidth="25185" windowHeight="16755" activeTab="5" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
+    <workbookView xWindow="-33360" yWindow="2880" windowWidth="23835" windowHeight="15735" activeTab="2" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
   </bookViews>
   <sheets>
     <sheet name="BrakesExample" sheetId="1" r:id="rId1"/>
-    <sheet name="CHAINSAW" sheetId="2" r:id="rId2"/>
-    <sheet name="Motor" sheetId="3" r:id="rId3"/>
-    <sheet name="Bar" sheetId="4" r:id="rId4"/>
-    <sheet name="Saw" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="CHAINSAWold" sheetId="2" r:id="rId2"/>
+    <sheet name="CHAINSAW" sheetId="7" r:id="rId3"/>
+    <sheet name="Motor" sheetId="3" r:id="rId4"/>
+    <sheet name="Bar" sheetId="4" r:id="rId5"/>
+    <sheet name="Saw" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Bar_length">Bar!$B$2</definedName>
     <definedName name="barCost">Bar!$E$2</definedName>
     <definedName name="barWeight">Bar!$E$3</definedName>
-    <definedName name="input1">Sheet1!$B$3</definedName>
-    <definedName name="input2">Sheet1!$B$4</definedName>
+    <definedName name="batteryCost">Sheet1!$B$3</definedName>
+    <definedName name="FactorySQFT">CHAINSAW!$H$36</definedName>
+    <definedName name="FixedCost">CHAINSAW!$H$15</definedName>
+    <definedName name="MachineryCost">CHAINSAW!$I$14</definedName>
+    <definedName name="motorCost">Sheet1!$B$4</definedName>
+    <definedName name="NumOfEmployees">CHAINSAW!$I$11</definedName>
     <definedName name="sawCost">Saw!$E$1</definedName>
     <definedName name="sawLength">Saw!$B$1</definedName>
     <definedName name="sawWeight">Saw!$E$2</definedName>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
   <si>
     <t>Pad</t>
   </si>
@@ -683,6 +688,78 @@
   <si>
     <t>input2</t>
   </si>
+  <si>
+    <t>https://chainsawpartsworld.com/product-category/ms271/?product-page=5</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>NRE</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Per Unit</t>
+  </si>
+  <si>
+    <t>Chain Brake</t>
+  </si>
+  <si>
+    <t>Industrial Space</t>
+  </si>
+  <si>
+    <t>Throttle Trigger</t>
+  </si>
+  <si>
+    <t>Tensioning Mechanism</t>
+  </si>
+  <si>
+    <t>Vibration Dampening System</t>
+  </si>
+  <si>
+    <t>Oil Lubrication System</t>
+  </si>
+  <si>
+    <t>Variable per Unit</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>Guide bar</t>
+  </si>
+  <si>
+    <t>Cost per kWh</t>
+  </si>
+  <si>
+    <t>Friction between saw and wood</t>
+  </si>
+  <si>
+    <t>Startup Costs</t>
+  </si>
 </sst>
 </file>
 
@@ -694,7 +771,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -774,6 +851,13 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -819,7 +903,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -998,13 +1082,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1075,10 +1272,42 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency 2" xfId="5" xr:uid="{B872E8AE-4215-4433-B48A-B4BFF1B05FF7}"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{760C69DD-6B03-4054-B18B-0B53935870C3}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6306,20 +6535,20 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="256" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="256" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6330,7 +6559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6341,7 +6570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6352,7 +6581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -6362,12 +6591,12 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -6378,7 +6607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -6388,12 +6617,12 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -6426,21 +6655,21 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="257" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.73046875" customWidth="1"/>
+    <col min="6" max="6" width="62.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" customWidth="1"/>
+    <col min="8" max="257" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
@@ -6449,18 +6678,18 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
         <v>17</v>
       </c>
@@ -6469,169 +6698,169 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="19"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="19"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="19"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="19"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="19"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="19"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="19"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="19"/>
     </row>
-    <row r="33" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
@@ -6644,6 +6873,452 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7301917A-2402-4315-88B5-A72059303FC8}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="24.86328125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.86328125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1328125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="257" width="8.6640625" style="42" customWidth="1"/>
+    <col min="258" max="16384" width="11.46484375" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F2" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="49">
+        <v>37</v>
+      </c>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="D8" s="45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="49">
+        <v>32</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="D11" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="54">
+        <f>I11*110000</f>
+        <v>1100000</v>
+      </c>
+      <c r="I11" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="D12" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="49">
+        <f>(I36+7000)*12</f>
+        <v>441600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="49">
+        <v>13</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="49">
+        <f>2*I11*55*2080</f>
+        <v>2288000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="49">
+        <v>24</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="58">
+        <f>(100000+150000+250000)*I14</f>
+        <v>550000</v>
+      </c>
+      <c r="I14" s="55">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="D15" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="42">
+        <v>13</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="60">
+        <f>SUM(H11:H14)</f>
+        <v>4379600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="49">
+        <v>15</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="G18" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="49">
+        <v>30</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="64">
+        <f>140*H36</f>
+        <v>5600000</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="49">
+        <v>52</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="G22" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="G23" s="66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="G24" s="67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="G25" s="68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="G26" s="68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="G27" s="69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="E31" s="42">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="E32" s="42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="E33" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="42">
+        <f>SUM(B6:B33)</f>
+        <v>293</v>
+      </c>
+      <c r="E34" s="42">
+        <f>E33*E32*E31</f>
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F35" s="42">
+        <f>75+142+400</f>
+        <v>617</v>
+      </c>
+      <c r="G35" s="42">
+        <f>0.63+1+4*0.71</f>
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F36" s="64">
+        <f>F35/6</f>
+        <v>102.83333333333333</v>
+      </c>
+      <c r="G36" s="64">
+        <f>G35/6</f>
+        <v>0.745</v>
+      </c>
+      <c r="H36" s="55">
+        <v>40000</v>
+      </c>
+      <c r="I36" s="70">
+        <f>G36*H36</f>
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G37" s="70">
+        <f>G36*12</f>
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G44" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G45" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" s="64">
+        <v>1709800</v>
+      </c>
+      <c r="I45" s="70">
+        <v>3074400</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{0FA179E5-588C-49F9-BE82-300E1074D7FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D655582-4061-484E-8974-7F9BDBEF5182}">
   <dimension ref="A1:W61"/>
   <sheetViews>
@@ -6651,9 +7326,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="27"/>
       <c r="B1" s="27" t="s">
         <v>15</v>
@@ -6712,7 +7387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>64</v>
       </c>
@@ -6783,7 +7458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -6842,7 +7517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="J4" s="16"/>
       <c r="K4" s="16" t="s">
         <v>74</v>
@@ -6886,7 +7561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="K5" t="s">
         <v>76</v>
@@ -6930,7 +7605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="K6" t="s">
         <v>77</v>
@@ -6974,7 +7649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K7" t="s">
         <v>78</v>
       </c>
@@ -7017,7 +7692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K8" t="s">
         <v>79</v>
       </c>
@@ -7060,7 +7735,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
         <v>80</v>
       </c>
@@ -7103,7 +7778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
         <v>81</v>
       </c>
@@ -7146,7 +7821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
         <v>82</v>
       </c>
@@ -7189,7 +7864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K12" t="s">
         <v>83</v>
       </c>
@@ -7232,7 +7907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K13" t="s">
         <v>84</v>
       </c>
@@ -7275,7 +7950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K14" t="s">
         <v>85</v>
       </c>
@@ -7318,7 +7993,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K15" t="s">
         <v>86</v>
       </c>
@@ -7361,7 +8036,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K16" t="s">
         <v>87</v>
       </c>
@@ -7404,7 +8079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K17" t="s">
         <v>88</v>
       </c>
@@ -7447,7 +8122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K18" t="s">
         <v>89</v>
       </c>
@@ -7490,7 +8165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K19" t="s">
         <v>90</v>
       </c>
@@ -7533,7 +8208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K20" t="s">
         <v>91</v>
       </c>
@@ -7576,7 +8251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K21" t="s">
         <v>92</v>
       </c>
@@ -7619,7 +8294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K22" t="s">
         <v>93</v>
       </c>
@@ -7662,7 +8337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K23" t="s">
         <v>94</v>
       </c>
@@ -7705,7 +8380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K24" t="s">
         <v>95</v>
       </c>
@@ -7748,7 +8423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K25" t="s">
         <v>96</v>
       </c>
@@ -7791,7 +8466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K26" t="s">
         <v>97</v>
       </c>
@@ -7834,7 +8509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K27" t="s">
         <v>98</v>
       </c>
@@ -7877,7 +8552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K28" t="s">
         <v>99</v>
       </c>
@@ -7920,7 +8595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K29" t="s">
         <v>100</v>
       </c>
@@ -7963,7 +8638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K30" t="s">
         <v>101</v>
       </c>
@@ -8006,7 +8681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K31" t="s">
         <v>102</v>
       </c>
@@ -8049,7 +8724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K32" t="s">
         <v>103</v>
       </c>
@@ -8092,7 +8767,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K33" t="s">
         <v>104</v>
       </c>
@@ -8135,7 +8810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K34" t="s">
         <v>105</v>
       </c>
@@ -8178,7 +8853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
         <v>106</v>
@@ -8222,7 +8897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J36" s="16"/>
       <c r="K36" s="16" t="s">
         <v>107</v>
@@ -8266,7 +8941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
         <v>108</v>
@@ -8310,7 +8985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J38" s="16"/>
       <c r="K38" s="16" t="s">
         <v>109</v>
@@ -8354,7 +9029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J39" s="16"/>
       <c r="K39" s="16" t="s">
         <v>110</v>
@@ -8398,7 +9073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J40" s="16"/>
       <c r="K40" s="16" t="s">
         <v>111</v>
@@ -8442,7 +9117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J41" s="16"/>
       <c r="K41" s="16" t="s">
         <v>112</v>
@@ -8486,7 +9161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J42" s="16"/>
       <c r="K42" s="16" t="s">
         <v>113</v>
@@ -8530,7 +9205,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J43" s="16"/>
       <c r="K43" s="16" t="s">
         <v>114</v>
@@ -8574,7 +9249,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J44" s="16"/>
       <c r="K44" s="16" t="s">
         <v>115</v>
@@ -8618,7 +9293,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
         <v>116</v>
@@ -8662,7 +9337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J46" s="16"/>
       <c r="K46" s="16" t="s">
         <v>117</v>
@@ -8706,7 +9381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J47" s="16"/>
       <c r="K47" s="16" t="s">
         <v>118</v>
@@ -8750,7 +9425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J48" s="16"/>
       <c r="K48" s="16" t="s">
         <v>119</v>
@@ -8794,7 +9469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J49" s="16"/>
       <c r="K49" s="16" t="s">
         <v>120</v>
@@ -8838,7 +9513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K50" t="s">
         <v>121</v>
       </c>
@@ -8881,7 +9556,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K51" t="s">
         <v>122</v>
       </c>
@@ -8924,7 +9599,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K52" t="s">
         <v>123</v>
       </c>
@@ -8967,7 +9642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K53" t="s">
         <v>124</v>
       </c>
@@ -9010,7 +9685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K54" t="s">
         <v>125</v>
       </c>
@@ -9053,7 +9728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K55" t="s">
         <v>126</v>
       </c>
@@ -9096,7 +9771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K56" t="s">
         <v>127</v>
       </c>
@@ -9139,7 +9814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K57" t="s">
         <v>128</v>
       </c>
@@ -9182,7 +9857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K58" t="s">
         <v>129</v>
       </c>
@@ -9225,7 +9900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K59" t="s">
         <v>130</v>
       </c>
@@ -9268,7 +9943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K60" t="s">
         <v>131</v>
       </c>
@@ -9311,7 +9986,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="10:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K61" t="s">
         <v>132</v>
       </c>
@@ -9360,7 +10035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230E1EB1-38B5-4FFE-A36F-3B9B55345D99}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X46"/>
@@ -9369,14 +10044,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.265625" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="13"/>
+    <col min="15" max="15" width="8.73046875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -9387,12 +10062,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>134</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -9402,7 +10077,7 @@
       </c>
       <c r="E2" s="13">
         <f>0.0408*B2^2-1.7314*B2+46.597</f>
-        <v>51.304000000000009</v>
+        <v>31.375000000000007</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -9426,13 +10101,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>66</v>
       </c>
       <c r="E3">
         <f>B2*0.06</f>
-        <v>2.6999999999999997</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="F3" t="s">
         <v>167</v>
@@ -9464,7 +10139,7 @@
         <v>0.66849999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I4" s="7">
         <v>30</v>
       </c>
@@ -9492,7 +10167,7 @@
         <v>0.52899999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I5" s="7">
         <v>30</v>
       </c>
@@ -9520,7 +10195,7 @@
         <v>0.25099999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I6" s="7">
         <v>30</v>
       </c>
@@ -9548,7 +10223,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="7">
         <v>30</v>
       </c>
@@ -9576,7 +10251,7 @@
         <v>1.113</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I8" s="7">
         <v>35</v>
       </c>
@@ -9604,7 +10279,7 @@
         <v>0.6551428571428568</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I9" s="7">
         <v>35</v>
       </c>
@@ -9632,7 +10307,7 @@
         <v>0.34357142857142842</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I10" s="7">
         <v>35</v>
       </c>
@@ -9660,7 +10335,7 @@
         <v>0.31099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I11" s="7">
         <v>35</v>
       </c>
@@ -9688,7 +10363,7 @@
         <v>0.28571428571428559</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I12" s="7">
         <v>35</v>
       </c>
@@ -9716,7 +10391,7 @@
         <v>0.81114285714285694</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I13" s="7">
         <v>40</v>
       </c>
@@ -9744,7 +10419,7 @@
         <v>0.22512500000000024</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I14" s="7">
         <v>40</v>
       </c>
@@ -9772,7 +10447,7 @@
         <v>0.54387500000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I15" s="7">
         <v>40</v>
       </c>
@@ -9803,7 +10478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I16" s="7">
         <v>40</v>
       </c>
@@ -9831,7 +10506,7 @@
         <v>0.26337500000000014</v>
       </c>
     </row>
-    <row r="17" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I17" s="7">
         <v>45</v>
       </c>
@@ -9862,7 +10537,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I18" s="7">
         <v>45</v>
       </c>
@@ -9890,7 +10565,7 @@
         <v>0.43366666666666664</v>
       </c>
     </row>
-    <row r="19" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I19" s="7">
         <v>45</v>
       </c>
@@ -9921,7 +10596,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I20" s="7">
         <v>45</v>
       </c>
@@ -9949,7 +10624,7 @@
         <v>0.68233333333333324</v>
       </c>
     </row>
-    <row r="21" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I21" s="7">
         <v>45</v>
       </c>
@@ -9992,7 +10667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I22" s="7">
         <v>45</v>
       </c>
@@ -10020,7 +10695,7 @@
         <v>0.8616666666666668</v>
       </c>
     </row>
-    <row r="23" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I23" s="9">
         <v>40</v>
       </c>
@@ -10039,7 +10714,7 @@
         <v>1.4746250000000001</v>
       </c>
     </row>
-    <row r="24" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I24" s="9">
         <v>45</v>
       </c>
@@ -10070,7 +10745,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I25" s="9">
         <v>35</v>
       </c>
@@ -10086,7 +10761,7 @@
         <v>0.49999999999999978</v>
       </c>
     </row>
-    <row r="26" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I26" s="9">
         <v>45</v>
       </c>
@@ -10105,7 +10780,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I27" s="9">
         <v>50</v>
       </c>
@@ -10127,7 +10802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I28" s="9">
         <v>45</v>
       </c>
@@ -10143,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I29" s="9">
         <v>45</v>
       </c>
@@ -10162,7 +10837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I30" s="9">
         <v>40</v>
       </c>
@@ -10178,7 +10853,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="31" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I31" s="9">
         <v>50</v>
       </c>
@@ -10194,7 +10869,7 @@
         <v>1.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I32" s="9">
         <v>45</v>
       </c>
@@ -10210,7 +10885,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I33" s="9">
         <v>50</v>
       </c>
@@ -10226,7 +10901,7 @@
         <v>0.5299999999999998</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I34" s="9">
         <v>50</v>
       </c>
@@ -10242,7 +10917,7 @@
         <v>0.70100000000000007</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I35" s="9">
         <v>50</v>
       </c>
@@ -10258,7 +10933,7 @@
         <v>1.5499999999999998</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I36" s="9">
         <v>50</v>
       </c>
@@ -10274,7 +10949,7 @@
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I37" s="9">
         <v>50</v>
       </c>
@@ -10290,22 +10965,22 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:16" x14ac:dyDescent="0.35">
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:16" x14ac:dyDescent="0.35">
       <c r="P39" s="14"/>
     </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:16" x14ac:dyDescent="0.35">
       <c r="P40" s="14"/>
     </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:16" x14ac:dyDescent="0.35">
       <c r="P41" s="14"/>
     </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:16" x14ac:dyDescent="0.35">
       <c r="O45"/>
     </row>
-    <row r="46" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:16" x14ac:dyDescent="0.35">
       <c r="O46"/>
     </row>
   </sheetData>
@@ -10315,7 +10990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3D1116-BEE9-834A-8EE9-D7FE57E68E2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
@@ -10323,18 +10998,18 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -10373,7 +11048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>66</v>
       </c>
@@ -10414,7 +11089,7 @@
         <v>4.3959999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I3" s="29">
         <v>50</v>
       </c>
@@ -10445,7 +11120,7 @@
         <v>1.7167999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I4" s="29">
         <v>45</v>
       </c>
@@ -10476,7 +11151,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I5" s="29">
         <v>45</v>
       </c>
@@ -10507,7 +11182,7 @@
         <v>1.6466666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I6" s="29">
         <v>50</v>
       </c>
@@ -10538,7 +11213,7 @@
         <v>0.99379999999999957</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="29">
         <v>45</v>
       </c>
@@ -10569,7 +11244,7 @@
         <v>1.0926666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I8" s="29">
         <v>50</v>
       </c>
@@ -10600,7 +11275,7 @@
         <v>0.85039999999999982</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I9" s="29">
         <v>50</v>
       </c>
@@ -10631,7 +11306,7 @@
         <v>0.73939999999999984</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I10" s="29">
         <v>40</v>
       </c>
@@ -10662,7 +11337,7 @@
         <v>1.0632500000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I11" s="29">
         <v>50</v>
       </c>
@@ -10693,7 +11368,7 @@
         <v>0.59899999999999975</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I12" s="29">
         <v>35</v>
       </c>
@@ -10724,7 +11399,7 @@
         <v>1.1994285714285713</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I13" s="29">
         <v>45</v>
       </c>
@@ -10755,7 +11430,7 @@
         <v>0.68599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I14" s="29">
         <v>40</v>
       </c>
@@ -10786,7 +11461,7 @@
         <v>0.81950000000000034</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I15" s="29">
         <v>50</v>
       </c>
@@ -10817,7 +11492,7 @@
         <v>0.45199999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I16" s="29">
         <v>50</v>
       </c>
@@ -10848,7 +11523,7 @@
         <v>0.41119999999999979</v>
       </c>
     </row>
-    <row r="17" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I17" s="29">
         <v>40</v>
       </c>
@@ -10879,7 +11554,7 @@
         <v>0.59750000000000014</v>
       </c>
     </row>
-    <row r="18" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I18" s="29">
         <v>35</v>
       </c>
@@ -10910,7 +11585,7 @@
         <v>0.7571428571428569</v>
       </c>
     </row>
-    <row r="19" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I19" s="29">
         <v>45</v>
       </c>
@@ -10941,7 +11616,7 @@
         <v>0.36133333333333351</v>
       </c>
     </row>
-    <row r="20" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I20" s="29">
         <v>30</v>
       </c>
@@ -10972,7 +11647,7 @@
         <v>1.0270000000000001</v>
       </c>
     </row>
-    <row r="21" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I21" s="29">
         <v>30</v>
       </c>
@@ -11003,7 +11678,7 @@
         <v>0.94899999999999984</v>
       </c>
     </row>
-    <row r="22" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I22" s="29">
         <v>40</v>
       </c>
@@ -11034,7 +11709,7 @@
         <v>0.43625000000000003</v>
       </c>
     </row>
-    <row r="23" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I23" s="29">
         <v>45</v>
       </c>
@@ -11065,7 +11740,7 @@
         <v>0.2306666666666668</v>
       </c>
     </row>
-    <row r="24" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I24" s="29">
         <v>40</v>
       </c>
@@ -11096,7 +11771,7 @@
         <v>0.34550000000000014</v>
       </c>
     </row>
-    <row r="25" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I25" s="29">
         <v>35</v>
       </c>
@@ -11127,7 +11802,7 @@
         <v>0.53342857142857136</v>
       </c>
     </row>
-    <row r="26" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I26" s="29">
         <v>35</v>
       </c>
@@ -11158,7 +11833,7 @@
         <v>0.48885714285714288</v>
       </c>
     </row>
-    <row r="27" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I27" s="29">
         <v>30</v>
       </c>
@@ -11189,7 +11864,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I28" s="29">
         <v>35</v>
       </c>
@@ -11220,7 +11895,7 @@
         <v>0.31742857142857117</v>
       </c>
     </row>
-    <row r="29" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I29" s="29">
         <v>40</v>
       </c>
@@ -11252,7 +11927,7 @@
         <v>0.11975000000000002</v>
       </c>
     </row>
-    <row r="30" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I30" s="29">
         <v>30</v>
       </c>
@@ -11283,7 +11958,7 @@
         <v>0.32899999999999996</v>
       </c>
     </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:17" ht="13.15" x14ac:dyDescent="0.35">
       <c r="I31" s="29">
         <v>35</v>
       </c>
@@ -11323,33 +11998,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D900EA-ED2B-48F0-9D89-86FA8E8492CA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>170</v>
       </c>
       <c r="B1">
         <f>sawCost+barCost+B3+B4</f>
-        <v>77.364000000000175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252.96335000000016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>174.9374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>172</v>
+      </c>
+      <c r="B4">
+        <v>20.590949999999999</v>
       </c>
     </row>
   </sheetData>

--- a/cost_model/cost_model.xlsx
+++ b/cost_model/cost_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\cost_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A63F94-4A7C-426A-9420-4BF497FBB1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B472D9-C0B9-4637-AA09-80E05F6D3887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33360" yWindow="2880" windowWidth="23835" windowHeight="15735" activeTab="2" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
   </bookViews>
   <sheets>
     <sheet name="BrakesExample" sheetId="1" r:id="rId1"/>
@@ -12039,9 +12039,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12189,26 +12192,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6736099F-A467-4EDF-97E1-862A5565D775}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12232,9 +12224,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6736099F-A467-4EDF-97E1-862A5565D775}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cost_model/cost_model.xlsx
+++ b/cost_model/cost_model.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\cost_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B472D9-C0B9-4637-AA09-80E05F6D3887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C5540-164E-4118-89D6-ACC5F318F909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
   </bookViews>
   <sheets>
-    <sheet name="BrakesExample" sheetId="1" r:id="rId1"/>
-    <sheet name="CHAINSAWold" sheetId="2" r:id="rId2"/>
-    <sheet name="CHAINSAW" sheetId="7" r:id="rId3"/>
-    <sheet name="Motor" sheetId="3" r:id="rId4"/>
-    <sheet name="Bar" sheetId="4" r:id="rId5"/>
-    <sheet name="Saw" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="CHAINSAW" sheetId="7" r:id="rId1"/>
+    <sheet name="Motor" sheetId="3" r:id="rId2"/>
+    <sheet name="Bar" sheetId="4" r:id="rId3"/>
+    <sheet name="Saw" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Bar_length">Bar!$B$2</definedName>
@@ -57,49 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
-  <si>
-    <t>Pad</t>
-  </si>
-  <si>
-    <t>surfaceArea</t>
-  </si>
-  <si>
-    <t>sq.in.</t>
-  </si>
-  <si>
-    <t>thickness</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>specificCost</t>
-  </si>
-  <si>
-    <t>$ per cu.in.</t>
-  </si>
-  <si>
-    <t>padCost</t>
-  </si>
-  <si>
-    <t>Caliper</t>
-  </si>
-  <si>
-    <t>pistonDiam</t>
-  </si>
-  <si>
-    <t>caliperCost</t>
-  </si>
-  <si>
-    <t>Rotor</t>
-  </si>
-  <si>
-    <t>rotorOD</t>
-  </si>
-  <si>
-    <t>rotorCost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="186">
   <si>
     <t>Outputs</t>
   </si>
@@ -760,18 +716,26 @@
   <si>
     <t>Startup Costs</t>
   </si>
+  <si>
+    <t>motorcost</t>
+  </si>
+  <si>
+    <t>batterycost</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -903,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -929,17 +893,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1201,20 +1154,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1224,82 +1174,68 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="4" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="4" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -3439,9 +3375,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
@@ -3538,9 +3471,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>53.96</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>45.28</c:v>
                 </c:pt>
@@ -6176,9 +6106,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>141922</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -6528,784 +6458,439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9492C9C8-C10C-434F-BF4D-53E69DBB1757}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="256" width="8.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="e">
-        <f>surfaceArea*thickness*specificCost</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="e">
-        <f>10+20*pistonDiam^2+3*surfaceArea</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="e">
-        <f>25+0.3*rotorOD^2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D50F681-5CC1-8249-8EAC-197C4827DB50}">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.73046875" customWidth="1"/>
-    <col min="6" max="6" width="62.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" customWidth="1"/>
-    <col min="8" max="257" width="8.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="19"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="19"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="19"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="19"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="19"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="19"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="19"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="19"/>
-    </row>
-    <row r="33" spans="1:2" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7301917A-2402-4315-88B5-A72059303FC8}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="24.86328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.86328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="257" width="8.6640625" style="42" customWidth="1"/>
-    <col min="258" max="16384" width="11.46484375" style="42"/>
+    <col min="1" max="1" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="24.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="257" width="8.6640625" style="25" customWidth="1"/>
+    <col min="258" max="16384" width="11.46484375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="F2" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.15" thickBot="1"/>
+    <row r="5" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32">
+        <v>37</v>
+      </c>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="D8" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.15" thickBot="1">
+      <c r="A9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32">
+        <v>32</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="D11" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="37">
+        <f>I11*110000</f>
+        <v>770000</v>
+      </c>
+      <c r="I11" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="D12" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="32">
+        <f>(I36+7000)*12</f>
+        <v>307500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <v>13</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="32">
+        <f>2*I11*55*2080</f>
+        <v>1601600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.15" thickBot="1">
+      <c r="A14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <v>24</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="41">
+        <f>(100000+150000+250000)*I14</f>
+        <v>520000</v>
+      </c>
+      <c r="I14" s="38">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="B15" s="32"/>
+      <c r="D15" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="25">
+        <v>13</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="43">
+        <f>SUM(H11:H14)</f>
+        <v>3199100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.15" thickBot="1">
+      <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F2" s="42" t="s">
+      <c r="B16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="43" t="s">
+      <c r="B17" s="32">
+        <v>15</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B18" s="32"/>
+      <c r="G18" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="B19" s="32">
+        <v>30</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="47">
+        <f>140*H36</f>
+        <v>3500000</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="49">
-        <v>37</v>
-      </c>
-      <c r="D7" s="45"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+      <c r="B21" s="32">
+        <v>52</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.15" thickBot="1">
+      <c r="A22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="D8" s="45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50" t="s">
+      <c r="B22" s="32"/>
+      <c r="G22" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A23" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="49"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="48" t="s">
+      <c r="B23" s="32"/>
+      <c r="G23" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B24" s="32"/>
+      <c r="G24" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="G25" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="G26" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.15" thickBot="1">
+      <c r="A27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="G27" s="52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="E31" s="25">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="E32" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.15" thickBot="1">
+      <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="D11" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="54">
-        <f>I11*110000</f>
-        <v>1100000</v>
-      </c>
-      <c r="I11" s="55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="D12" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="49">
-        <f>(I36+7000)*12</f>
-        <v>441600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="49">
-        <v>13</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="49">
-        <f>2*I11*55*2080</f>
-        <v>2288000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="49">
-        <v>24</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="58">
-        <f>(100000+150000+250000)*I14</f>
-        <v>550000</v>
-      </c>
-      <c r="I14" s="55">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="D15" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="42">
-        <v>13</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="60">
-        <f>SUM(H11:H14)</f>
-        <v>4379600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="49"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="49">
-        <v>15</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="G18" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="49">
-        <v>30</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="64">
-        <f>140*H36</f>
-        <v>5600000</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="49">
-        <v>52</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="G22" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" s="58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="G23" s="66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="G24" s="67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="G25" s="68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="G26" s="68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="G27" s="69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="49"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="49">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="49">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="E31" s="42">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="E32" s="42">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="E33" s="42">
+      <c r="B33" s="41"/>
+      <c r="E33" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="42">
+    <row r="34" spans="1:9">
+      <c r="B34" s="25">
         <f>SUM(B6:B33)</f>
         <v>293</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="25">
         <f>E33*E32*E31</f>
         <v>5160</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F35" s="42">
+    <row r="35" spans="1:9">
+      <c r="F35" s="25">
         <f>75+142+400</f>
         <v>617</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="25">
         <f>0.63+1+4*0.71</f>
         <v>4.47</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F36" s="64">
+    <row r="36" spans="1:9">
+      <c r="F36" s="47">
         <f>F35/6</f>
         <v>102.83333333333333</v>
       </c>
-      <c r="G36" s="64">
+      <c r="G36" s="47">
         <f>G35/6</f>
         <v>0.745</v>
       </c>
-      <c r="H36" s="55">
-        <v>40000</v>
-      </c>
-      <c r="I36" s="70">
+      <c r="H36" s="38">
+        <v>25000</v>
+      </c>
+      <c r="I36" s="53">
         <f>G36*H36</f>
-        <v>29800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G37" s="70">
+        <v>18625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="G37" s="53">
         <f>G36*12</f>
         <v>8.94</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G44" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G45" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="64">
+    <row r="44" spans="1:9">
+      <c r="G44" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="G45" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="47">
         <v>1709800</v>
       </c>
-      <c r="I45" s="70">
+      <c r="I45" s="53">
         <v>3074400</v>
       </c>
     </row>
@@ -7318,7 +6903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D655582-4061-484E-8974-7F9BDBEF5182}">
   <dimension ref="A1:W61"/>
   <sheetViews>
@@ -7326,245 +6911,245 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
-        <v>49</v>
+    <row r="1" spans="1:23" ht="14.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="G1" s="1"/>
       <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.25">
+      <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>2.1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <f>MIN(N2:N61)</f>
         <v>0.04</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <f>MAX(N2:N61)</f>
         <v>2.1</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>66</v>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="G2">
         <f>1.931*B2+0.2579</f>
         <v>4.3130000000000006</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="16">
+        <v>53</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="13">
         <v>12</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="13">
         <v>15</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="13">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="14">
         <f t="shared" ref="O2:O33" si="0">M2/N2</f>
         <v>312.5</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="13">
         <v>3000</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="13">
         <v>0.35</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="13">
         <v>24.85</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="13">
         <v>53</v>
       </c>
-      <c r="T2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="16">
+      <c r="T2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="13">
         <v>42</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="13">
         <f t="shared" ref="V2:V33" si="1">M2/Q2</f>
         <v>42.857142857142861</v>
       </c>
-      <c r="W2" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
-        <v>71</v>
+      <c r="W2" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="G3">
         <f>50.039*B2+18.089</f>
         <v>123.1709</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="16">
+        <v>58</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="13">
         <v>12</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="13">
         <v>50</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="13">
         <v>0.16</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="14">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="13">
         <v>3000</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="13">
         <v>0.47</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="13">
         <v>24.02</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="13">
         <v>53.5</v>
       </c>
-      <c r="T3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="16">
+      <c r="T3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="13">
         <v>57</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="13">
         <f t="shared" si="1"/>
         <v>106.38297872340426</v>
       </c>
-      <c r="W3" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="W3" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="13">
         <v>12</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="13">
         <v>50</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="13">
         <v>0.16</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="14">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="13">
         <v>3000</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="13">
         <v>0.54</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="13">
         <v>21.35</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="13">
         <v>53.5</v>
       </c>
-      <c r="T4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="16">
+      <c r="T4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="13">
         <v>57</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="13">
         <f t="shared" si="1"/>
         <v>92.592592592592581</v>
       </c>
-      <c r="W4" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="W4" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="2"/>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L5">
         <v>24</v>
@@ -7575,7 +7160,7 @@
       <c r="N5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -7592,7 +7177,7 @@
         <v>65.2</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U5">
         <v>36</v>
@@ -7602,13 +7187,13 @@
         <v>66.666666666666671</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="2"/>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L6">
         <v>24</v>
@@ -7619,7 +7204,7 @@
       <c r="N6">
         <v>6.2E-2</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="9">
         <f t="shared" si="0"/>
         <v>209.67741935483872</v>
       </c>
@@ -7636,7 +7221,7 @@
         <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U6">
         <v>42</v>
@@ -7646,12 +7231,12 @@
         <v>43.333333333333336</v>
       </c>
       <c r="W6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="K7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>24</v>
@@ -7662,7 +7247,7 @@
       <c r="N7">
         <v>0.13100000000000001</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="9">
         <f t="shared" si="0"/>
         <v>419.84732824427482</v>
       </c>
@@ -7679,7 +7264,7 @@
         <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U7">
         <v>42</v>
@@ -7689,12 +7274,12 @@
         <v>117.02127659574468</v>
       </c>
       <c r="W7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="K8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L8">
         <v>24</v>
@@ -7705,7 +7290,7 @@
       <c r="N8">
         <v>0.17899999999999999</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="9">
         <f t="shared" si="0"/>
         <v>418.99441340782124</v>
       </c>
@@ -7722,7 +7307,7 @@
         <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U8">
         <v>42</v>
@@ -7732,12 +7317,12 @@
         <v>125</v>
       </c>
       <c r="W8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="K9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L9">
         <v>24</v>
@@ -7748,7 +7333,7 @@
       <c r="N9">
         <v>6.3E-2</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="9">
         <f t="shared" si="0"/>
         <v>412.69841269841271</v>
       </c>
@@ -7765,7 +7350,7 @@
         <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U9">
         <v>42</v>
@@ -7775,12 +7360,12 @@
         <v>86.666666666666671</v>
       </c>
       <c r="W9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="K10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <v>24</v>
@@ -7791,7 +7376,7 @@
       <c r="N10">
         <v>0.125</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="9">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
@@ -7808,7 +7393,7 @@
         <v>59.2</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U10">
         <v>42</v>
@@ -7818,12 +7403,12 @@
         <v>87.5</v>
       </c>
       <c r="W10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="K11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L11">
         <v>24</v>
@@ -7834,7 +7419,7 @@
       <c r="N11">
         <v>0.185</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="9">
         <f t="shared" si="0"/>
         <v>418.91891891891891</v>
       </c>
@@ -7851,7 +7436,7 @@
         <v>79</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U11">
         <v>42</v>
@@ -7861,12 +7446,12 @@
         <v>119.23076923076923</v>
       </c>
       <c r="W11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="K12" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L12">
         <v>24</v>
@@ -7877,7 +7462,7 @@
       <c r="N12">
         <v>0.25</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="9">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
@@ -7894,7 +7479,7 @@
         <v>99.2</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U12">
         <v>42</v>
@@ -7904,12 +7489,12 @@
         <v>123.52941176470588</v>
       </c>
       <c r="W12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="K13" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="K13" t="s">
-        <v>84</v>
       </c>
       <c r="L13">
         <v>24</v>
@@ -7920,7 +7505,7 @@
       <c r="N13">
         <v>0.08</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -7937,7 +7522,7 @@
         <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U13">
         <v>42</v>
@@ -7947,12 +7532,12 @@
         <v>65.78947368421052</v>
       </c>
       <c r="W13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="K14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="L14">
         <v>24</v>
@@ -7963,7 +7548,7 @@
       <c r="N14">
         <v>0.16</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -7980,7 +7565,7 @@
         <v>62</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U14">
         <v>42</v>
@@ -7990,12 +7575,12 @@
         <v>94.339622641509436</v>
       </c>
       <c r="W14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="K15" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L15">
         <v>24</v>
@@ -8006,7 +7591,7 @@
       <c r="N15">
         <v>0.24</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8023,7 +7608,7 @@
         <v>78</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U15">
         <v>42</v>
@@ -8033,12 +7618,12 @@
         <v>110.29411764705881</v>
       </c>
       <c r="W15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="K16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="L16">
         <v>24</v>
@@ -8049,7 +7634,7 @@
       <c r="N16">
         <v>0.25</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="9">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
@@ -8066,7 +7651,7 @@
         <v>101</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U16">
         <v>42</v>
@@ -8076,12 +7661,12 @@
         <v>89.772727272727266</v>
       </c>
       <c r="W16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="11:23">
       <c r="K17" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="L17">
         <v>24</v>
@@ -8092,7 +7677,7 @@
       <c r="N17">
         <v>6.3E-2</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="9">
         <f t="shared" si="0"/>
         <v>317.46031746031747</v>
       </c>
@@ -8109,7 +7694,7 @@
         <v>41</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U17">
         <v>42</v>
@@ -8119,12 +7704,12 @@
         <v>62.5</v>
       </c>
       <c r="W17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="11:23">
       <c r="K18" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="L18">
         <v>24</v>
@@ -8135,7 +7720,7 @@
       <c r="N18">
         <v>0.125</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="9">
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
@@ -8152,7 +7737,7 @@
         <v>61</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U18">
         <v>42</v>
@@ -8162,12 +7747,12 @@
         <v>78</v>
       </c>
       <c r="W18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="11:23">
       <c r="K19" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L19">
         <v>24</v>
@@ -8178,7 +7763,7 @@
       <c r="N19">
         <v>0.19</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="9">
         <f t="shared" si="0"/>
         <v>315.78947368421052</v>
       </c>
@@ -8195,7 +7780,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U19">
         <v>42</v>
@@ -8205,12 +7790,12 @@
         <v>83.333333333333343</v>
       </c>
       <c r="W19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="11:23">
       <c r="K20" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="L20">
         <v>24</v>
@@ -8221,7 +7806,7 @@
       <c r="N20">
         <v>0.04</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="9">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
@@ -8238,7 +7823,7 @@
         <v>43</v>
       </c>
       <c r="T20" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U20">
         <v>42</v>
@@ -8248,12 +7833,12 @@
         <v>43.333333333333336</v>
       </c>
       <c r="W20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="11:23">
       <c r="K21" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L21">
         <v>24</v>
@@ -8264,7 +7849,7 @@
       <c r="N21">
         <v>0.08</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8281,7 +7866,7 @@
         <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U21">
         <v>42</v>
@@ -8291,12 +7876,12 @@
         <v>69.444444444444443</v>
       </c>
       <c r="W21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="11:23">
       <c r="K22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L22">
         <v>24</v>
@@ -8307,7 +7892,7 @@
       <c r="N22">
         <v>0.16</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8324,7 +7909,7 @@
         <v>73</v>
       </c>
       <c r="T22" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U22">
         <v>42</v>
@@ -8334,12 +7919,12 @@
         <v>96.153846153846146</v>
       </c>
       <c r="W22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="11:23">
       <c r="K23" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="L23">
         <v>24</v>
@@ -8350,7 +7935,7 @@
       <c r="N23">
         <v>0.23</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="9">
         <f t="shared" si="0"/>
         <v>365.21739130434781</v>
       </c>
@@ -8367,7 +7952,7 @@
         <v>49</v>
       </c>
       <c r="T23" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U23">
         <v>57</v>
@@ -8377,12 +7962,12 @@
         <v>152.72727272727272</v>
       </c>
       <c r="W23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="11:23">
       <c r="K24" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="L24">
         <v>24</v>
@@ -8393,7 +7978,7 @@
       <c r="N24">
         <v>0.37</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="9">
         <f t="shared" si="0"/>
         <v>362.16216216216219</v>
       </c>
@@ -8410,7 +7995,7 @@
         <v>69</v>
       </c>
       <c r="T24" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U24">
         <v>57</v>
@@ -8420,12 +8005,12 @@
         <v>163.41463414634148</v>
       </c>
       <c r="W24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="11:23">
       <c r="K25" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -8436,7 +8021,7 @@
       <c r="N25">
         <v>0.47</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="9">
         <f t="shared" si="0"/>
         <v>365.95744680851067</v>
       </c>
@@ -8453,7 +8038,7 @@
         <v>69</v>
       </c>
       <c r="T25" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U25">
         <v>57</v>
@@ -8463,12 +8048,12 @@
         <v>212.34567901234567</v>
       </c>
       <c r="W25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="11:23">
       <c r="K26" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -8479,7 +8064,7 @@
       <c r="N26">
         <v>0.6</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="9">
         <f t="shared" si="0"/>
         <v>366.66666666666669</v>
       </c>
@@ -8496,7 +8081,7 @@
         <v>89</v>
       </c>
       <c r="T26" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U26">
         <v>57</v>
@@ -8506,12 +8091,12 @@
         <v>186.4406779661017</v>
       </c>
       <c r="W26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="11:23">
       <c r="K27" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L27">
         <v>24</v>
@@ -8522,7 +8107,7 @@
       <c r="N27">
         <v>0.16</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="9">
         <f t="shared" si="0"/>
         <v>418.75</v>
       </c>
@@ -8539,7 +8124,7 @@
         <v>53.5</v>
       </c>
       <c r="T27" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U27">
         <v>57</v>
@@ -8549,12 +8134,12 @@
         <v>128.84615384615384</v>
       </c>
       <c r="W27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="11:23">
       <c r="K28" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -8565,7 +8150,7 @@
       <c r="N28">
         <v>0.2</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="9">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
@@ -8582,7 +8167,7 @@
         <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U28">
         <v>57</v>
@@ -8592,12 +8177,12 @@
         <v>90</v>
       </c>
       <c r="W28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="11:23">
       <c r="K29" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -8608,7 +8193,7 @@
       <c r="N29">
         <v>0.3</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="9">
         <f t="shared" si="0"/>
         <v>313.33333333333337</v>
       </c>
@@ -8625,7 +8210,7 @@
         <v>76</v>
       </c>
       <c r="T29" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U29">
         <v>57</v>
@@ -8635,12 +8220,12 @@
         <v>104.44444444444444</v>
       </c>
       <c r="W29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="11:23">
       <c r="K30" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L30">
         <v>24</v>
@@ -8651,7 +8236,7 @@
       <c r="N30">
         <v>0.16</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8668,7 +8253,7 @@
         <v>53.5</v>
       </c>
       <c r="T30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U30">
         <v>57</v>
@@ -8678,12 +8263,12 @@
         <v>87.719298245614041</v>
       </c>
       <c r="W30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="11:23">
       <c r="K31" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L31">
         <v>24</v>
@@ -8694,7 +8279,7 @@
       <c r="N31">
         <v>0.32</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="9">
         <f t="shared" si="0"/>
         <v>315.625</v>
       </c>
@@ -8711,7 +8296,7 @@
         <v>73.5</v>
       </c>
       <c r="T31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U31">
         <v>57</v>
@@ -8721,12 +8306,12 @@
         <v>118.82352941176471</v>
       </c>
       <c r="W31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="11:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="11:23">
       <c r="K32" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -8737,7 +8322,7 @@
       <c r="N32">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="9">
         <f t="shared" si="0"/>
         <v>313.79310344827587</v>
       </c>
@@ -8754,7 +8339,7 @@
         <v>73.5</v>
       </c>
       <c r="T32" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U32">
         <v>57</v>
@@ -8764,12 +8349,12 @@
         <v>115.18987341772151</v>
       </c>
       <c r="W32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="10:23">
       <c r="K33" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L33">
         <v>24</v>
@@ -8780,7 +8365,7 @@
       <c r="N33">
         <v>0.16</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8797,7 +8382,7 @@
         <v>53.5</v>
       </c>
       <c r="T33" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U33">
         <v>57</v>
@@ -8807,12 +8392,12 @@
         <v>92.592592592592581</v>
       </c>
       <c r="W33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="10:23">
       <c r="K34" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L34">
         <v>24</v>
@@ -8823,7 +8408,7 @@
       <c r="N34">
         <v>0.35</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="9">
         <f t="shared" ref="O34:O61" si="2">M34/N34</f>
         <v>314.28571428571428</v>
       </c>
@@ -8840,7 +8425,7 @@
         <v>70</v>
       </c>
       <c r="T34" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U34">
         <v>86</v>
@@ -8850,672 +8435,672 @@
         <v>66.666666666666671</v>
       </c>
       <c r="W34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J35" s="16"/>
-      <c r="K35" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="L35" s="16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="10:23">
+      <c r="J35" s="13"/>
+      <c r="K35" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="13">
         <v>36</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="13">
         <v>50</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="13">
         <v>0.16</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="14">
         <f t="shared" si="2"/>
         <v>312.5</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="13">
         <v>3000</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="13">
         <v>0.53</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R35" s="13">
         <v>24.02</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S35" s="13">
         <v>62</v>
       </c>
-      <c r="T35" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U35" s="16">
+      <c r="T35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U35" s="13">
         <v>42</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V35" s="13">
         <f t="shared" si="3"/>
         <v>94.339622641509436</v>
       </c>
-      <c r="W35" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J36" s="16"/>
-      <c r="K36" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" s="16">
+      <c r="W35" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="10:23">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="13">
         <v>36</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="13">
         <v>25</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="13">
         <v>5.5E-2</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="14">
         <f t="shared" si="2"/>
         <v>454.54545454545456</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="13">
         <v>4400</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="13">
         <v>0.4</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36" s="13">
         <v>23.54</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S36" s="13">
         <v>43</v>
       </c>
-      <c r="T36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U36" s="16">
+      <c r="T36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" s="13">
         <v>57</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36" s="13">
         <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
-      <c r="W36" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J37" s="16"/>
-      <c r="K37" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L37" s="16">
+      <c r="W36" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="10:23">
+      <c r="J37" s="13"/>
+      <c r="K37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="13">
         <v>36</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="13">
         <v>46</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="13">
         <v>0.11</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="14">
         <f t="shared" si="2"/>
         <v>418.18181818181819</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="13">
         <v>4000</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q37" s="13">
         <v>0.53</v>
       </c>
-      <c r="R37" s="16">
+      <c r="R37" s="13">
         <v>24.85</v>
       </c>
-      <c r="S37" s="16">
+      <c r="S37" s="13">
         <v>49</v>
       </c>
-      <c r="T37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U37" s="16">
+      <c r="T37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U37" s="13">
         <v>57</v>
       </c>
-      <c r="V37" s="16">
+      <c r="V37" s="13">
         <f t="shared" si="3"/>
         <v>86.79245283018868</v>
       </c>
-      <c r="W37" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J38" s="16"/>
-      <c r="K38" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L38" s="16">
+      <c r="W37" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="10:23">
+      <c r="J38" s="13"/>
+      <c r="K38" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="13">
         <v>36</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="13">
         <v>99</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="13">
         <v>0.22</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="14">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="13">
         <v>4300</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="13">
         <v>0.73</v>
       </c>
-      <c r="R38" s="16">
+      <c r="R38" s="13">
         <v>30.08</v>
       </c>
-      <c r="S38" s="16">
+      <c r="S38" s="13">
         <v>69</v>
       </c>
-      <c r="T38" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U38" s="16">
+      <c r="T38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38" s="13">
         <v>57</v>
       </c>
-      <c r="V38" s="16">
+      <c r="V38" s="13">
         <f t="shared" si="3"/>
         <v>135.61643835616439</v>
       </c>
-      <c r="W38" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J39" s="16"/>
-      <c r="K39" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L39" s="16">
+      <c r="W38" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="10:23">
+      <c r="J39" s="13"/>
+      <c r="K39" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="13">
         <v>36</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="13">
         <v>138</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="13">
         <v>0.33</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="14">
         <f t="shared" si="2"/>
         <v>418.18181818181819</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39" s="13">
         <v>4000</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q39" s="13">
         <v>1.03</v>
       </c>
-      <c r="R39" s="16">
+      <c r="R39" s="13">
         <v>36.619999999999997</v>
       </c>
-      <c r="S39" s="16">
+      <c r="S39" s="13">
         <v>89</v>
       </c>
-      <c r="T39" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U39" s="16">
+      <c r="T39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39" s="13">
         <v>57</v>
       </c>
-      <c r="V39" s="16">
+      <c r="V39" s="13">
         <f t="shared" si="3"/>
         <v>133.98058252427185</v>
       </c>
-      <c r="W39" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J40" s="16"/>
-      <c r="K40" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L40" s="16">
+      <c r="W39" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="10:23">
+      <c r="J40" s="13"/>
+      <c r="K40" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="13">
         <v>36</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="13">
         <v>184</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="13">
         <v>0.44</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="14">
         <f t="shared" si="2"/>
         <v>418.18181818181819</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40" s="13">
         <v>4000</v>
       </c>
-      <c r="Q40" s="16">
+      <c r="Q40" s="13">
         <v>1.25</v>
       </c>
-      <c r="R40" s="16">
+      <c r="R40" s="13">
         <v>41.85</v>
       </c>
-      <c r="S40" s="16">
+      <c r="S40" s="13">
         <v>109</v>
       </c>
-      <c r="T40" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U40" s="16">
+      <c r="T40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U40" s="13">
         <v>57</v>
       </c>
-      <c r="V40" s="16">
+      <c r="V40" s="13">
         <f t="shared" si="3"/>
         <v>147.19999999999999</v>
       </c>
-      <c r="W40" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J41" s="16"/>
-      <c r="K41" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L41" s="16">
+      <c r="W40" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="10:23">
+      <c r="J41" s="13"/>
+      <c r="K41" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="13">
         <v>36</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M41" s="13">
         <v>188</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N41" s="13">
         <v>0.6</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41" s="13">
         <v>3000</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="13">
         <v>1.35</v>
       </c>
-      <c r="R41" s="16">
+      <c r="R41" s="13">
         <v>58.7</v>
       </c>
-      <c r="S41" s="16">
+      <c r="S41" s="13">
         <v>100</v>
       </c>
-      <c r="T41" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U41" s="16">
+      <c r="T41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" s="13">
         <v>57</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V41" s="13">
         <f t="shared" si="3"/>
         <v>139.25925925925924</v>
       </c>
-      <c r="W41" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J42" s="16"/>
-      <c r="K42" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L42" s="16">
+      <c r="W41" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="10:23">
+      <c r="J42" s="13"/>
+      <c r="K42" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="13">
         <v>36</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="13">
         <v>126</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="13">
         <v>0.4</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="14">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="13">
         <v>3000</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="13">
         <v>1.03</v>
       </c>
-      <c r="R42" s="16">
+      <c r="R42" s="13">
         <v>42.69</v>
       </c>
-      <c r="S42" s="16">
+      <c r="S42" s="13">
         <v>79</v>
       </c>
-      <c r="T42" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U42" s="16">
+      <c r="T42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U42" s="13">
         <v>57</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V42" s="13">
         <f t="shared" si="3"/>
         <v>122.33009708737863</v>
       </c>
-      <c r="W42" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J43" s="16"/>
-      <c r="K43" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="L43" s="16">
+      <c r="W42" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="10:23">
+      <c r="J43" s="13"/>
+      <c r="K43" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="13">
         <v>36</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="13">
         <v>188</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="13">
         <v>0.6</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="13">
         <v>3000</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="13">
         <v>1.49</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R43" s="13">
         <v>38.69</v>
       </c>
-      <c r="S43" s="16">
+      <c r="S43" s="13">
         <v>116</v>
       </c>
-      <c r="T43" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U43" s="16">
+      <c r="T43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U43" s="13">
         <v>57</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V43" s="13">
         <f t="shared" si="3"/>
         <v>126.1744966442953</v>
       </c>
-      <c r="W43" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J44" s="16"/>
-      <c r="K44" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="16">
+      <c r="W43" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="10:23">
+      <c r="J44" s="13"/>
+      <c r="K44" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="13">
         <v>36</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="13">
         <v>94</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="13">
         <v>0.3</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="13">
         <v>3000</v>
       </c>
-      <c r="Q44" s="16">
+      <c r="Q44" s="13">
         <v>0.9</v>
       </c>
-      <c r="R44" s="16">
+      <c r="R44" s="13">
         <v>28.02</v>
       </c>
-      <c r="S44" s="16">
+      <c r="S44" s="13">
         <v>76</v>
       </c>
-      <c r="T44" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U44" s="16">
+      <c r="T44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U44" s="13">
         <v>57</v>
       </c>
-      <c r="V44" s="16">
+      <c r="V44" s="13">
         <f t="shared" si="3"/>
         <v>104.44444444444444</v>
       </c>
-      <c r="W44" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J45" s="16"/>
-      <c r="K45" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L45" s="16">
+      <c r="W44" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="10:23">
+      <c r="J45" s="13"/>
+      <c r="K45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="13">
         <v>36</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="13">
         <v>141</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="13">
         <v>0.45</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333331</v>
       </c>
-      <c r="P45" s="16">
+      <c r="P45" s="13">
         <v>3000</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45" s="13">
         <v>0.91</v>
       </c>
-      <c r="R45" s="16">
+      <c r="R45" s="13">
         <v>33.35</v>
       </c>
-      <c r="S45" s="16">
+      <c r="S45" s="13">
         <v>96</v>
       </c>
-      <c r="T45" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U45" s="16">
+      <c r="T45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U45" s="13">
         <v>57</v>
       </c>
-      <c r="V45" s="16">
+      <c r="V45" s="13">
         <f t="shared" si="3"/>
         <v>154.94505494505495</v>
       </c>
-      <c r="W45" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J46" s="16"/>
-      <c r="K46" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="16">
+      <c r="W45" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="10:23">
+      <c r="J46" s="13"/>
+      <c r="K46" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="13">
         <v>36</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="13">
         <v>101</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N46" s="13">
         <v>0.32</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="14">
         <f t="shared" si="2"/>
         <v>315.625</v>
       </c>
-      <c r="P46" s="16">
+      <c r="P46" s="13">
         <v>3000</v>
       </c>
-      <c r="Q46" s="16">
+      <c r="Q46" s="13">
         <v>0.85</v>
       </c>
-      <c r="R46" s="16">
+      <c r="R46" s="13">
         <v>37.36</v>
       </c>
-      <c r="S46" s="16">
+      <c r="S46" s="13">
         <v>73.5</v>
       </c>
-      <c r="T46" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U46" s="16">
+      <c r="T46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U46" s="13">
         <v>57</v>
       </c>
-      <c r="V46" s="16">
+      <c r="V46" s="13">
         <f t="shared" si="3"/>
         <v>118.82352941176471</v>
       </c>
-      <c r="W46" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J47" s="16"/>
-      <c r="K47" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="L47" s="16">
+      <c r="W46" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="10:23">
+      <c r="J47" s="13"/>
+      <c r="K47" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="13">
         <v>36</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M47" s="13">
         <v>141</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N47" s="13">
         <v>0.45</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333331</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P47" s="13">
         <v>3000</v>
       </c>
-      <c r="Q47" s="16">
+      <c r="Q47" s="13">
         <v>1.1299999999999999</v>
       </c>
-      <c r="R47" s="16">
+      <c r="R47" s="13">
         <v>49.36</v>
       </c>
-      <c r="S47" s="16">
+      <c r="S47" s="13">
         <v>93.5</v>
       </c>
-      <c r="T47" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U47" s="16">
+      <c r="T47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47" s="13">
         <v>57</v>
       </c>
-      <c r="V47" s="16">
+      <c r="V47" s="13">
         <f t="shared" si="3"/>
         <v>124.77876106194691</v>
       </c>
-      <c r="W47" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J48" s="16"/>
-      <c r="K48" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="L48" s="16">
+      <c r="W47" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="10:23">
+      <c r="J48" s="13"/>
+      <c r="K48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L48" s="13">
         <v>36</v>
       </c>
-      <c r="M48" s="16">
+      <c r="M48" s="13">
         <v>91</v>
       </c>
-      <c r="N48" s="16">
+      <c r="N48" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="14">
         <f t="shared" si="2"/>
         <v>313.79310344827587</v>
       </c>
-      <c r="P48" s="16">
+      <c r="P48" s="13">
         <v>3000</v>
       </c>
-      <c r="Q48" s="16">
+      <c r="Q48" s="13">
         <v>0.79</v>
       </c>
-      <c r="R48" s="16">
+      <c r="R48" s="13">
         <v>29.35</v>
       </c>
-      <c r="S48" s="16">
+      <c r="S48" s="13">
         <v>73.5</v>
       </c>
-      <c r="T48" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U48" s="16">
+      <c r="T48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U48" s="13">
         <v>57</v>
       </c>
-      <c r="V48" s="16">
+      <c r="V48" s="13">
         <f t="shared" si="3"/>
         <v>115.18987341772151</v>
       </c>
-      <c r="W48" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J49" s="16"/>
-      <c r="K49" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="L49" s="16">
+      <c r="W48" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="10:23">
+      <c r="J49" s="13"/>
+      <c r="K49" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="13">
         <v>36</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="13">
         <v>129</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N49" s="13">
         <v>0.41</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="14">
         <f t="shared" si="2"/>
         <v>314.63414634146341</v>
       </c>
-      <c r="P49" s="16">
+      <c r="P49" s="13">
         <v>3000</v>
       </c>
-      <c r="Q49" s="16">
+      <c r="Q49" s="13">
         <v>1.04</v>
       </c>
-      <c r="R49" s="16">
+      <c r="R49" s="13">
         <v>34.69</v>
       </c>
-      <c r="S49" s="16">
+      <c r="S49" s="13">
         <v>93.5</v>
       </c>
-      <c r="T49" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U49" s="16">
+      <c r="T49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U49" s="13">
         <v>57</v>
       </c>
-      <c r="V49" s="16">
+      <c r="V49" s="13">
         <f t="shared" si="3"/>
         <v>124.03846153846153</v>
       </c>
-      <c r="W49" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="10:23" x14ac:dyDescent="0.35">
+      <c r="W49" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="10:23">
       <c r="K50" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L50">
         <v>48</v>
@@ -9526,7 +9111,7 @@
       <c r="N50">
         <v>0.24</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="9">
         <f t="shared" si="2"/>
         <v>312.5</v>
       </c>
@@ -9543,7 +9128,7 @@
         <v>78</v>
       </c>
       <c r="T50" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U50">
         <v>42</v>
@@ -9553,12 +9138,12 @@
         <v>110.29411764705881</v>
       </c>
       <c r="W50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="10:23">
       <c r="K51" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L51">
         <v>48</v>
@@ -9569,7 +9154,7 @@
       <c r="N51">
         <v>0.25</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O51" s="9">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
@@ -9586,7 +9171,7 @@
         <v>101</v>
       </c>
       <c r="T51" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U51">
         <v>42</v>
@@ -9596,12 +9181,12 @@
         <v>89.772727272727266</v>
       </c>
       <c r="W51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="10:23">
       <c r="K52" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L52">
         <v>48</v>
@@ -9612,7 +9197,7 @@
       <c r="N52">
         <v>0.125</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="9">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
@@ -9629,7 +9214,7 @@
         <v>61</v>
       </c>
       <c r="T52" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U52">
         <v>42</v>
@@ -9639,12 +9224,12 @@
         <v>78</v>
       </c>
       <c r="W52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="10:23">
       <c r="K53" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L53">
         <v>48</v>
@@ -9655,7 +9240,7 @@
       <c r="N53">
         <v>0.19</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="9">
         <f t="shared" si="2"/>
         <v>315.78947368421052</v>
       </c>
@@ -9672,7 +9257,7 @@
         <v>81</v>
       </c>
       <c r="T53" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U53">
         <v>42</v>
@@ -9682,12 +9267,12 @@
         <v>83.333333333333343</v>
       </c>
       <c r="W53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="10:23">
       <c r="K54" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L54">
         <v>48</v>
@@ -9698,7 +9283,7 @@
       <c r="N54">
         <v>0.6</v>
       </c>
-      <c r="O54" s="12">
+      <c r="O54" s="9">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
@@ -9715,7 +9300,7 @@
         <v>100</v>
       </c>
       <c r="T54" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U54">
         <v>57</v>
@@ -9725,12 +9310,12 @@
         <v>139.25925925925924</v>
       </c>
       <c r="W54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="10:23">
       <c r="K55" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L55">
         <v>48</v>
@@ -9741,7 +9326,7 @@
       <c r="N55">
         <v>0.6</v>
       </c>
-      <c r="O55" s="12">
+      <c r="O55" s="9">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
@@ -9758,7 +9343,7 @@
         <v>116</v>
       </c>
       <c r="T55" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U55">
         <v>57</v>
@@ -9768,12 +9353,12 @@
         <v>126.1744966442953</v>
       </c>
       <c r="W55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="10:23">
       <c r="K56" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L56">
         <v>48</v>
@@ -9784,7 +9369,7 @@
       <c r="N56">
         <v>0.45</v>
       </c>
-      <c r="O56" s="12">
+      <c r="O56" s="9">
         <f t="shared" si="2"/>
         <v>313.33333333333331</v>
       </c>
@@ -9801,7 +9386,7 @@
         <v>93.5</v>
       </c>
       <c r="T56" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U56">
         <v>57</v>
@@ -9811,12 +9396,12 @@
         <v>124.77876106194691</v>
       </c>
       <c r="W56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="10:23">
       <c r="K57" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L57">
         <v>48</v>
@@ -9827,7 +9412,7 @@
       <c r="N57">
         <v>0.6</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="9">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
@@ -9844,7 +9429,7 @@
         <v>113.5</v>
       </c>
       <c r="T57" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U57">
         <v>57</v>
@@ -9854,12 +9439,12 @@
         <v>133.33333333333334</v>
       </c>
       <c r="W57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="10:23">
       <c r="K58" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L58">
         <v>48</v>
@@ -9870,7 +9455,7 @@
       <c r="N58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="9">
         <f t="shared" si="2"/>
         <v>314.03508771929825</v>
       </c>
@@ -9887,7 +9472,7 @@
         <v>113.5</v>
       </c>
       <c r="T58" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U58">
         <v>57</v>
@@ -9897,12 +9482,12 @@
         <v>138.75968992248062</v>
       </c>
       <c r="W58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="10:23">
       <c r="K59" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L59">
         <v>48</v>
@@ -9913,7 +9498,7 @@
       <c r="N59">
         <v>0.41</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="9">
         <f t="shared" si="2"/>
         <v>314.63414634146341</v>
       </c>
@@ -9930,7 +9515,7 @@
         <v>93.5</v>
       </c>
       <c r="T59" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U59">
         <v>57</v>
@@ -9940,12 +9525,12 @@
         <v>124.03846153846153</v>
       </c>
       <c r="W59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="10:23">
       <c r="K60" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L60">
         <v>48</v>
@@ -9956,7 +9541,7 @@
       <c r="N60">
         <v>1.4</v>
       </c>
-      <c r="O60" s="12">
+      <c r="O60" s="9">
         <f t="shared" si="2"/>
         <v>314.28571428571428</v>
       </c>
@@ -9973,7 +9558,7 @@
         <v>108</v>
       </c>
       <c r="T60" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U60">
         <v>86</v>
@@ -9983,12 +9568,12 @@
         <v>137.5</v>
       </c>
       <c r="W60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="10:23" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="10:23">
       <c r="K61" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L61">
         <v>48</v>
@@ -9999,7 +9584,7 @@
       <c r="N61">
         <v>2.1</v>
       </c>
-      <c r="O61" s="12">
+      <c r="O61" s="9">
         <f t="shared" si="2"/>
         <v>314.28571428571428</v>
       </c>
@@ -10016,7 +9601,7 @@
         <v>135</v>
       </c>
       <c r="T61" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U61">
         <v>86</v>
@@ -10026,7 +9611,7 @@
         <v>157.14285714285714</v>
       </c>
       <c r="W61" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -10035,624 +9620,624 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230E1EB1-38B5-4FFE-A36F-3B9B55345D99}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75"/>
   <cols>
     <col min="9" max="9" width="16.265625" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="15" max="15" width="8.73046875" style="13"/>
+    <col min="15" max="15" width="8.73046875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="13.15" thickBot="1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="10">
+        <f>0.0408*(B2/10)^2-1.7314*(B2/10)+46.597</f>
+        <v>46.52780928</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="13.15" thickBot="1">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <f>(B2/10)*0.06</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="4">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="13">
-        <f>0.0408*B2^2-1.7314*B2+46.597</f>
-        <v>31.375000000000007</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3">
-        <f>B2*0.06</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="F3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="7">
-        <v>30</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="J3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="5">
         <v>33.369999999999997</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <f>20*(I3/30)</f>
         <v>20</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="11">
         <f>N3/O3-1</f>
         <v>0.66849999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I4" s="7">
+    <row r="4" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I4" s="4">
         <v>30</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="J4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="5">
         <v>30.58</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="10">
         <f t="shared" ref="O4:O37" si="0">20*(I4/30)</f>
         <v>20</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="11">
         <f t="shared" ref="P4:P37" si="1">N4/O4-1</f>
         <v>0.52899999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I5" s="7">
+    <row r="5" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I5" s="4">
         <v>30</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="J5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="5">
         <v>25.02</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="11">
         <f t="shared" si="1"/>
         <v>0.25099999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I6" s="7">
+    <row r="6" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I6" s="4">
         <v>30</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="J6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="5">
         <v>28.06</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="11">
         <f t="shared" si="1"/>
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I7" s="7">
+    <row r="7" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I7" s="4">
         <v>30</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="J7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="5">
         <v>42.26</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="11">
         <f t="shared" si="1"/>
         <v>1.113</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="7">
+    <row r="8" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I8" s="4">
         <v>35</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="J8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="5">
         <v>38.619999999999997</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="11">
         <f t="shared" si="1"/>
         <v>0.6551428571428568</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I9" s="7">
+    <row r="9" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I9" s="4">
         <v>35</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="J9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="5">
         <v>31.35</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="11">
         <f t="shared" si="1"/>
         <v>0.34357142857142842</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I10" s="7">
+    <row r="10" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I10" s="4">
         <v>35</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="J10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="5">
         <v>30.59</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="11">
         <f t="shared" si="1"/>
         <v>0.31099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I11" s="7">
+    <row r="11" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I11" s="4">
         <v>35</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="J11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="5">
         <v>30</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="11">
         <f t="shared" si="1"/>
         <v>0.28571428571428559</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I12" s="7">
+    <row r="12" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I12" s="4">
         <v>35</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="J12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" s="5">
         <v>42.26</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="11">
         <f t="shared" si="1"/>
         <v>0.81114285714285694</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I13" s="7">
+    <row r="13" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I13" s="4">
         <v>40</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="J13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="5">
         <v>32.67</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="11">
         <f t="shared" si="1"/>
         <v>0.22512500000000024</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I14" s="7">
+    <row r="14" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I14" s="4">
         <v>40</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="J14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="5">
         <v>41.17</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="11">
         <f t="shared" si="1"/>
         <v>0.54387500000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I15" s="7">
+    <row r="15" spans="1:19" ht="13.5" thickBot="1">
+      <c r="I15" s="4">
         <v>40</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="J15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="5">
         <v>34.47</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="11">
         <f t="shared" si="1"/>
         <v>0.29262500000000014</v>
       </c>
-      <c r="S15" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I16" s="7">
+      <c r="S15" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="13.15" thickBot="1">
+      <c r="I16" s="4">
         <v>40</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N16" s="8">
+      <c r="J16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16" s="5">
         <v>33.69</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="11">
         <f t="shared" si="1"/>
         <v>0.26337500000000014</v>
       </c>
     </row>
-    <row r="17" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="7">
+    <row r="17" spans="9:24" ht="13.5" thickBot="1">
+      <c r="I17" s="4">
         <v>45</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="J17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="5">
         <v>40.69</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="11">
         <f t="shared" si="1"/>
         <v>0.35633333333333317</v>
       </c>
-      <c r="S17" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="7">
+      <c r="S17" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="9:24" ht="13.15" thickBot="1">
+      <c r="I18" s="4">
         <v>45</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="J18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="5">
         <v>43.01</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="11">
         <f t="shared" si="1"/>
         <v>0.43366666666666664</v>
       </c>
     </row>
-    <row r="19" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I19" s="7">
+    <row r="19" spans="9:24" ht="13.5" thickBot="1">
+      <c r="I19" s="4">
         <v>45</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="J19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="5">
         <v>53.99</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="11">
         <f t="shared" si="1"/>
         <v>0.79966666666666675</v>
       </c>
-      <c r="S19" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="7">
+      <c r="S19" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="9:24" ht="13.15" thickBot="1">
+      <c r="I20" s="4">
         <v>45</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="J20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="5">
         <v>50.47</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="11">
         <f t="shared" si="1"/>
         <v>0.68233333333333324</v>
       </c>
     </row>
-    <row r="21" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="7">
+    <row r="21" spans="9:24" ht="13.15" thickBot="1">
+      <c r="I21" s="4">
         <v>45</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="J21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="5">
         <v>46.93</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="11">
         <f t="shared" si="1"/>
         <v>0.56433333333333335</v>
       </c>
       <c r="S21" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="T21">
         <v>225</v>
@@ -10661,326 +10246,326 @@
         <v>30</v>
       </c>
       <c r="W21" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="X21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I22" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="9:24">
+      <c r="I22" s="4">
         <v>45</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N22" s="8">
+      <c r="J22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="5">
         <v>55.85</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="11">
         <f t="shared" si="1"/>
         <v>0.8616666666666668</v>
       </c>
     </row>
-    <row r="23" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I23" s="9">
+    <row r="23" spans="9:24">
+      <c r="I23" s="6">
         <v>40</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="N23" s="10">
+      <c r="L23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" s="7">
         <v>65.989999999999995</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="11">
         <f t="shared" si="1"/>
         <v>1.4746250000000001</v>
       </c>
     </row>
-    <row r="24" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I24" s="9">
+    <row r="24" spans="9:24">
+      <c r="I24" s="6">
         <v>45</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="7">
         <v>54.99</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="11">
         <f t="shared" si="1"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S24" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="T24">
         <v>130</v>
       </c>
       <c r="U24" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="V24">
         <v>20</v>
       </c>
       <c r="W24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I25" s="9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="9:24">
+      <c r="I25" s="6">
         <v>35</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="7">
         <v>35</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="11">
         <f t="shared" si="1"/>
         <v>0.49999999999999978</v>
       </c>
     </row>
-    <row r="26" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I26" s="9">
+    <row r="26" spans="9:24">
+      <c r="I26" s="6">
         <v>45</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="7">
         <v>60</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I27" s="9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="9:24">
+      <c r="I27" s="6">
         <v>50</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="7">
         <v>50</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="S27" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="T27">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I28" s="9">
+    <row r="28" spans="9:24">
+      <c r="I28" s="6">
         <v>45</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="7">
         <v>60</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I29" s="9">
+    <row r="29" spans="9:24">
+      <c r="I29" s="6">
         <v>45</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="7">
         <v>54</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="11">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="S29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I30" s="9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="9:24">
+      <c r="I30" s="6">
         <v>40</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="7">
         <v>60</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="11">
         <f>N30/O30-1</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="31" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I31" s="9">
+    <row r="31" spans="9:24">
+      <c r="I31" s="6">
         <v>50</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="7">
         <v>70</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="11">
         <f t="shared" si="1"/>
         <v>1.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I32" s="9">
+    <row r="32" spans="9:24">
+      <c r="I32" s="6">
         <v>45</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="7">
         <v>38</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="11">
         <f t="shared" si="1"/>
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I33" s="9">
+    <row r="33" spans="9:16">
+      <c r="I33" s="6">
         <v>50</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="7">
         <v>51</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="11">
         <f t="shared" si="1"/>
         <v>0.5299999999999998</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I34" s="9">
+    <row r="34" spans="9:16">
+      <c r="I34" s="6">
         <v>50</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="7">
         <v>56.7</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="11">
         <f t="shared" si="1"/>
         <v>0.70100000000000007</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I35" s="9">
+    <row r="35" spans="9:16">
+      <c r="I35" s="6">
         <v>50</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="7">
         <v>85</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="11">
         <f t="shared" si="1"/>
         <v>1.5499999999999998</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I36" s="9">
+    <row r="36" spans="9:16">
+      <c r="I36" s="6">
         <v>50</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="7">
         <v>60</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="11">
         <f t="shared" si="1"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I37" s="9">
+    <row r="37" spans="9:16">
+      <c r="I37" s="6">
         <v>50</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="7">
         <v>64</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="11">
         <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="P38" s="14"/>
-    </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="P39" s="14"/>
-    </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="P40" s="14"/>
-    </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="P41" s="14"/>
-    </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:16">
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="9:16">
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="9:16">
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="9:16">
+      <c r="P41" s="11"/>
+    </row>
+    <row r="45" spans="9:16">
       <c r="O45"/>
     </row>
-    <row r="46" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:16">
       <c r="O46"/>
     </row>
   </sheetData>
@@ -10990,15 +10575,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3D1116-BEE9-834A-8EE9-D7FE57E68E2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75"/>
   <cols>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.86328125" bestFit="1" customWidth="1"/>
@@ -11009,983 +10594,963 @@
     <col min="15" max="15" width="7.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="13.5" thickBot="1">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B1">
+        <v>0.4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="10">
+        <f>-0.0064*(B1/10)^3+0.7895*(B1/10)^2-30.989*(B1/10)+410.5</f>
+        <v>409.26170279040002</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" thickBot="1">
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <f>(B1/10)*0.1</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I3" s="17">
+        <v>50</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="23">
+        <v>68</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="18">
+        <v>45.28</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P31" si="0">I3/30*10</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" ref="Q3:Q31" si="1">O3/P3-1</f>
+        <v>1.7167999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I4" s="17">
+        <v>45</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="17">
+        <v>64</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="18">
+        <v>41.85</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="1"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I5" s="17">
+        <v>45</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="17">
+        <v>62</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="18">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="1"/>
+        <v>1.6466666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I6" s="17">
+        <v>50</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="23">
+        <v>72</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="18">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.99379999999999957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I7" s="17">
+        <v>45</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="17">
+        <v>62</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="18">
+        <v>31.39</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0926666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I8" s="17">
+        <v>50</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="23">
+        <v>70</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="18">
+        <v>30.84</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.85039999999999982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I9" s="17">
+        <v>50</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="24">
+        <v>72</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" s="21">
+        <v>28.99</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.73939999999999984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I10" s="17">
+        <v>40</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="17">
+        <v>56</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="18">
+        <v>27.51</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0632500000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I11" s="17">
+        <v>50</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="23">
+        <v>70</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="18">
+        <v>26.65</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.59899999999999975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I12" s="17">
+        <v>35</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="17">
+        <v>52</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="18">
+        <v>25.66</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="0"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1994285714285713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I13" s="17">
+        <v>45</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="20">
+        <v>62</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="21">
+        <v>25.29</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.68599999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I14" s="17">
+        <v>40</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="17">
+        <v>57</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="18">
+        <v>24.26</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.81950000000000034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I15" s="17">
+        <v>50</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="23">
+        <v>70</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.45199999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13.5" thickBot="1">
+      <c r="I16" s="17">
+        <v>50</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="23">
+        <v>70</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="18">
+        <v>23.52</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41119999999999979</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I17" s="17">
+        <v>40</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="17">
+        <v>60</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="18">
+        <v>21.3</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.59750000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I18" s="17">
+        <v>35</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="17">
+        <v>52</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="0"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.7571428571428569</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I19" s="17">
+        <v>45</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="17">
+        <v>62</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" s="18">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>0.36133333333333351</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I20" s="17">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="13">
-        <f>-0.0112*B1^3+1.4085*B1^2-57.286*B1+779.39</f>
-        <v>26.060000000000173</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2">
-        <f>B1*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="29">
+      <c r="J20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="17">
+        <v>45</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O20" s="18">
+        <v>20.27</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0270000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I21" s="17">
         <v>30</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="29">
+      <c r="J21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="17">
+        <v>44</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="18">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.94899999999999984</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I22" s="17">
+        <v>40</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="17">
+        <v>57</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" s="18">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q22" s="11">
+        <f t="shared" si="1"/>
+        <v>0.43625000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I23" s="17">
         <v>45</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="30">
-        <v>53.96</v>
-      </c>
-      <c r="P2" s="13">
-        <f>I2/30*10</f>
+      <c r="J23" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="17">
+        <v>62</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="18">
+        <v>18.46</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2306666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I24" s="17">
+        <v>40</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="17">
+        <v>56</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" s="18">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="1"/>
+        <v>0.34550000000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I25" s="17">
+        <v>35</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="17">
+        <v>52</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O25" s="18">
+        <v>17.89</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="0"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53342857142857136</v>
+      </c>
+    </row>
+    <row r="26" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I26" s="17">
+        <v>35</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="17">
+        <v>50</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26" s="18">
+        <v>17.37</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="0"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48885714285714288</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I27" s="17">
+        <v>30</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" s="17">
+        <v>45</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O27" s="18">
+        <v>16.13</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q2" s="14">
-        <f t="shared" ref="Q2:Q31" si="0">O2/P2-1</f>
-        <v>4.3959999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I3" s="29">
-        <v>50</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="35">
-        <v>68</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" s="30">
-        <v>45.28</v>
-      </c>
-      <c r="P3" s="13">
-        <f t="shared" ref="P3:P31" si="1">I3/30*10</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="Q27" s="11">
+        <f t="shared" si="1"/>
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I28" s="17">
+        <v>35</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="17">
+        <v>52</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="18">
+        <v>15.37</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="0"/>
-        <v>1.7167999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I4" s="29">
-        <v>45</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="29">
-        <v>64</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="30">
-        <v>41.85</v>
-      </c>
-      <c r="P4" s="13">
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q28" s="11">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q4" s="14">
-        <f t="shared" si="0"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I5" s="29">
-        <v>45</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="29">
-        <v>62</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="O5" s="30">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="P5" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q5" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6466666666666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I6" s="29">
-        <v>50</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L6" s="35">
-        <v>72</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="O6" s="30">
-        <v>33.229999999999997</v>
-      </c>
-      <c r="P6" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.99379999999999957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I7" s="29">
-        <v>45</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="29">
-        <v>62</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="O7" s="30">
-        <v>31.39</v>
-      </c>
-      <c r="P7" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0926666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="29">
-        <v>50</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" s="35">
-        <v>70</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="O8" s="30">
-        <v>30.84</v>
-      </c>
-      <c r="P8" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.85039999999999982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I9" s="29">
-        <v>50</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="36">
-        <v>72</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="33">
-        <v>28.99</v>
-      </c>
-      <c r="P9" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.73939999999999984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I10" s="29">
+        <v>0.31742857142857117</v>
+      </c>
+    </row>
+    <row r="29" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I29" s="17">
         <v>40</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="29">
+      <c r="J29" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="17">
         <v>56</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O10" s="30">
-        <v>27.51</v>
-      </c>
-      <c r="P10" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0632500000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I11" s="29">
-        <v>50</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="35">
-        <v>70</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="O11" s="30">
-        <v>26.65</v>
-      </c>
-      <c r="P11" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.59899999999999975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I12" s="29">
-        <v>35</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" s="29">
-        <v>52</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O12" s="30">
-        <v>25.66</v>
-      </c>
-      <c r="P12" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q12" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1994285714285713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I13" s="29">
-        <v>45</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="32">
-        <v>62</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" s="33">
-        <v>25.29</v>
-      </c>
-      <c r="P13" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.68599999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I14" s="29">
-        <v>40</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="29">
-        <v>57</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" s="30">
-        <v>24.26</v>
-      </c>
-      <c r="P14" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.81950000000000034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I15" s="29">
-        <v>50</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" s="35">
-        <v>70</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="O15" s="30">
-        <v>24.2</v>
-      </c>
-      <c r="P15" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q15" s="14">
-        <f t="shared" si="0"/>
-        <v>0.45199999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I16" s="29">
-        <v>50</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" s="35">
-        <v>70</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" s="30">
-        <v>23.52</v>
-      </c>
-      <c r="P16" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.41119999999999979</v>
-      </c>
-    </row>
-    <row r="17" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I17" s="29">
-        <v>40</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="29">
-        <v>60</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O17" s="30">
-        <v>21.3</v>
-      </c>
-      <c r="P17" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q17" s="14">
-        <f t="shared" si="0"/>
-        <v>0.59750000000000014</v>
-      </c>
-    </row>
-    <row r="18" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="29">
-        <v>35</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="29">
-        <v>52</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O18" s="30">
-        <v>20.5</v>
-      </c>
-      <c r="P18" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q18" s="14">
-        <f t="shared" si="0"/>
-        <v>0.7571428571428569</v>
-      </c>
-    </row>
-    <row r="19" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I19" s="29">
-        <v>45</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="29">
-        <v>62</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" s="30">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="P19" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q19" s="14">
-        <f t="shared" si="0"/>
-        <v>0.36133333333333351</v>
-      </c>
-    </row>
-    <row r="20" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="29">
-        <v>30</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="29">
-        <v>45</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O20" s="30">
-        <v>20.27</v>
-      </c>
-      <c r="P20" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q20" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0270000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="29">
-        <v>30</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" s="29">
-        <v>44</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O21" s="30">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="P21" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.94899999999999984</v>
-      </c>
-    </row>
-    <row r="22" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I22" s="29">
-        <v>40</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="29">
-        <v>57</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N22" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O22" s="30">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="P22" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.43625000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="29">
-        <v>45</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="29">
-        <v>62</v>
-      </c>
-      <c r="M23" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N23" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O23" s="30">
-        <v>18.46</v>
-      </c>
-      <c r="P23" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2306666666666668</v>
-      </c>
-    </row>
-    <row r="24" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I24" s="29">
-        <v>40</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" s="29">
-        <v>56</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N24" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O24" s="30">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="P24" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.34550000000000014</v>
-      </c>
-    </row>
-    <row r="25" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I25" s="29">
-        <v>35</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="29">
-        <v>52</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N25" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O25" s="30">
-        <v>17.89</v>
-      </c>
-      <c r="P25" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.53342857142857136</v>
-      </c>
-    </row>
-    <row r="26" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I26" s="29">
-        <v>35</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="29">
-        <v>50</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N26" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O26" s="30">
-        <v>17.37</v>
-      </c>
-      <c r="P26" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q26" s="14">
-        <f t="shared" si="0"/>
-        <v>0.48885714285714288</v>
-      </c>
-    </row>
-    <row r="27" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I27" s="29">
-        <v>30</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L27" s="29">
-        <v>45</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O27" s="30">
-        <v>16.13</v>
-      </c>
-      <c r="P27" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q27" s="14">
-        <f t="shared" si="0"/>
-        <v>0.61299999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I28" s="29">
-        <v>35</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="29">
-        <v>52</v>
-      </c>
-      <c r="M28" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O28" s="30">
-        <v>15.37</v>
-      </c>
-      <c r="P28" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q28" s="14">
-        <f t="shared" si="0"/>
-        <v>0.31742857142857117</v>
-      </c>
-    </row>
-    <row r="29" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I29" s="29">
-        <v>40</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" s="29">
-        <v>56</v>
-      </c>
-      <c r="M29" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N29" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O29" s="31">
+      <c r="M29" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O29" s="19">
         <f>29.86/2</f>
         <v>14.93</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q29" s="11">
         <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q29" s="14">
+        <v>0.11975000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="9:17" ht="13.5" thickBot="1">
+      <c r="I30" s="17">
+        <v>30</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="17">
+        <v>45</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" s="18">
+        <v>13.29</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="0"/>
-        <v>0.11975000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="29">
-        <v>30</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L30" s="29">
-        <v>45</v>
-      </c>
-      <c r="M30" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N30" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O30" s="30">
-        <v>13.29</v>
-      </c>
-      <c r="P30" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q30" s="14">
+        <v>0.32899999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="9:17" ht="13.15">
+      <c r="I31" s="17">
+        <v>35</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="17">
+        <v>49</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O31" s="18">
+        <v>12.59</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="0"/>
-        <v>0.32899999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="9:17" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="I31" s="29">
-        <v>35</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" s="29">
-        <v>49</v>
-      </c>
-      <c r="M31" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N31" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O31" s="30">
-        <v>12.59</v>
-      </c>
-      <c r="P31" s="13">
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q31" s="11">
         <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q31" s="14">
-        <f t="shared" si="0"/>
         <v>7.9142857142856959E-2</v>
       </c>
     </row>
@@ -11998,39 +11563,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D900EA-ED2B-48F0-9D89-86FA8E8492CA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B1">
         <f>sawCost+barCost+B3+B4</f>
-        <v>252.96335000000016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>791.56501207040003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B3">
-        <v>174.9374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>267.64749999999998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B4">
-        <v>20.590949999999999</v>
+        <v>68.128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -12039,12 +11610,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12192,15 +11760,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6736099F-A467-4EDF-97E1-862A5565D775}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12224,17 +11803,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6736099F-A467-4EDF-97E1-862A5565D775}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cost_model/cost_model.xlsx
+++ b/cost_model/cost_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\cost_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C5540-164E-4118-89D6-ACC5F318F909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B419944E-7C9D-4821-9DB0-661A8B92BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
   </bookViews>
@@ -735,7 +735,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6465,7 +6465,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="25" customWidth="1"/>
@@ -6479,7 +6479,7 @@
     <col min="258" max="16384" width="11.46484375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
@@ -6487,13 +6487,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.15" thickBot="1"/>
-    <row r="5" spans="1:9" ht="13.5" thickBot="1">
+    <row r="4" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="D5" s="28"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="D7" s="28"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
@@ -6528,13 +6528,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.15" thickBot="1">
+    <row r="9" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="13.5" thickBot="1">
+    <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>12</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>1601600</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.15" thickBot="1">
+    <row r="14" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="s">
         <v>13</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" thickBot="1">
+    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
@@ -6641,13 +6641,13 @@
         <v>3199100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.15" thickBot="1">
+    <row r="16" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="32"/>
     </row>
-    <row r="17" spans="1:8" ht="13.5" thickBot="1">
+    <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>17</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>18</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="46" t="s">
         <v>19</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="46" t="s">
         <v>20</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.15" thickBot="1">
+    <row r="22" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="46" t="s">
         <v>21</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.5" thickBot="1">
+    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="33" t="s">
         <v>22</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>23</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
         <v>24</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>25</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.15" thickBot="1">
+    <row r="27" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="31" t="s">
         <v>26</v>
       </c>
@@ -6783,13 +6783,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="32"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>28</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>29</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="38" t="s">
         <v>30</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>31</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.15" thickBot="1">
+    <row r="33" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B34" s="25">
         <f>SUM(B6:B33)</f>
         <v>293</v>
@@ -6845,7 +6845,7 @@
         <v>5160</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F35" s="25">
         <f>75+142+400</f>
         <v>617</v>
@@ -6855,7 +6855,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F36" s="47">
         <f>F35/6</f>
         <v>102.83333333333333</v>
@@ -6872,18 +6872,18 @@
         <v>18625</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G37" s="53">
         <f>G36*12</f>
         <v>8.94</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G44" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G45" s="25" t="s">
         <v>182</v>
       </c>
@@ -6911,9 +6911,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25">
+    <row r="1" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -6972,7 +6972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.25">
+    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.25">
+    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7102,7 +7102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
         <v>60</v>
@@ -7146,7 +7146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="K5" t="s">
         <v>62</v>
@@ -7190,7 +7190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="K6" t="s">
         <v>63</v>
@@ -7234,7 +7234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K7" t="s">
         <v>64</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K8" t="s">
         <v>65</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
         <v>66</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
         <v>67</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
         <v>68</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K12" t="s">
         <v>69</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K13" t="s">
         <v>70</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K14" t="s">
         <v>71</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K15" t="s">
         <v>72</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K16" t="s">
         <v>73</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="11:23">
+    <row r="17" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K17" t="s">
         <v>74</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="11:23">
+    <row r="18" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K18" t="s">
         <v>75</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="11:23">
+    <row r="19" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K19" t="s">
         <v>76</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="11:23">
+    <row r="20" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K20" t="s">
         <v>77</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="11:23">
+    <row r="21" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K21" t="s">
         <v>78</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="11:23">
+    <row r="22" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K22" t="s">
         <v>79</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="11:23">
+    <row r="23" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K23" t="s">
         <v>80</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="11:23">
+    <row r="24" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K24" t="s">
         <v>81</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="11:23">
+    <row r="25" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K25" t="s">
         <v>82</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="11:23">
+    <row r="26" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K26" t="s">
         <v>83</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="11:23">
+    <row r="27" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K27" t="s">
         <v>84</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="11:23">
+    <row r="28" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K28" t="s">
         <v>85</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="11:23">
+    <row r="29" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K29" t="s">
         <v>86</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="11:23">
+    <row r="30" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K30" t="s">
         <v>87</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="11:23">
+    <row r="31" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K31" t="s">
         <v>88</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="11:23">
+    <row r="32" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K32" t="s">
         <v>89</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="10:23">
+    <row r="33" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K33" t="s">
         <v>90</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="10:23">
+    <row r="34" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K34" t="s">
         <v>91</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="10:23">
+    <row r="35" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J35" s="13"/>
       <c r="K35" s="13" t="s">
         <v>92</v>
@@ -8482,7 +8482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="10:23">
+    <row r="36" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J36" s="13"/>
       <c r="K36" s="13" t="s">
         <v>93</v>
@@ -8526,7 +8526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="10:23">
+    <row r="37" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J37" s="13"/>
       <c r="K37" s="13" t="s">
         <v>94</v>
@@ -8570,7 +8570,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="10:23">
+    <row r="38" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J38" s="13"/>
       <c r="K38" s="13" t="s">
         <v>95</v>
@@ -8614,7 +8614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="10:23">
+    <row r="39" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J39" s="13"/>
       <c r="K39" s="13" t="s">
         <v>96</v>
@@ -8658,7 +8658,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="10:23">
+    <row r="40" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J40" s="13"/>
       <c r="K40" s="13" t="s">
         <v>97</v>
@@ -8702,7 +8702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="10:23">
+    <row r="41" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J41" s="13"/>
       <c r="K41" s="13" t="s">
         <v>98</v>
@@ -8746,7 +8746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="10:23">
+    <row r="42" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J42" s="13"/>
       <c r="K42" s="13" t="s">
         <v>99</v>
@@ -8790,7 +8790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="10:23">
+    <row r="43" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J43" s="13"/>
       <c r="K43" s="13" t="s">
         <v>100</v>
@@ -8834,7 +8834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="10:23">
+    <row r="44" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J44" s="13"/>
       <c r="K44" s="13" t="s">
         <v>101</v>
@@ -8878,7 +8878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="10:23">
+    <row r="45" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J45" s="13"/>
       <c r="K45" s="13" t="s">
         <v>102</v>
@@ -8922,7 +8922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="10:23">
+    <row r="46" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J46" s="13"/>
       <c r="K46" s="13" t="s">
         <v>103</v>
@@ -8966,7 +8966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="10:23">
+    <row r="47" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J47" s="13"/>
       <c r="K47" s="13" t="s">
         <v>104</v>
@@ -9010,7 +9010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="10:23">
+    <row r="48" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J48" s="13"/>
       <c r="K48" s="13" t="s">
         <v>105</v>
@@ -9054,7 +9054,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="10:23">
+    <row r="49" spans="10:23" x14ac:dyDescent="0.35">
       <c r="J49" s="13"/>
       <c r="K49" s="13" t="s">
         <v>106</v>
@@ -9098,7 +9098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="10:23">
+    <row r="50" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K50" t="s">
         <v>107</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="10:23">
+    <row r="51" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K51" t="s">
         <v>108</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="10:23">
+    <row r="52" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K52" t="s">
         <v>109</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="10:23">
+    <row r="53" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K53" t="s">
         <v>110</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="10:23">
+    <row r="54" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K54" t="s">
         <v>111</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="10:23">
+    <row r="55" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K55" t="s">
         <v>112</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="10:23">
+    <row r="56" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K56" t="s">
         <v>113</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="10:23">
+    <row r="57" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K57" t="s">
         <v>114</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="10:23">
+    <row r="58" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K58" t="s">
         <v>115</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="10:23">
+    <row r="59" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K59" t="s">
         <v>116</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="10:23">
+    <row r="60" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K60" t="s">
         <v>117</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="10:23">
+    <row r="61" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K61" t="s">
         <v>118</v>
       </c>
@@ -9629,14 +9629,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="16.265625" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
     <col min="15" max="15" width="8.73046875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.15" thickBot="1">
+    <row r="2" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13.15" thickBot="1">
+    <row r="3" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>52</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>0.66849999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.15" thickBot="1">
+    <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I4" s="4">
         <v>30</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>0.52899999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.15" thickBot="1">
+    <row r="5" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I5" s="4">
         <v>30</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>0.25099999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.15" thickBot="1">
+    <row r="6" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I6" s="4">
         <v>30</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.15" thickBot="1">
+    <row r="7" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="4">
         <v>30</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>1.113</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.15" thickBot="1">
+    <row r="8" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I8" s="4">
         <v>35</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>0.6551428571428568</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.15" thickBot="1">
+    <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I9" s="4">
         <v>35</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>0.34357142857142842</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.15" thickBot="1">
+    <row r="10" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I10" s="4">
         <v>35</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>0.31099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.15" thickBot="1">
+    <row r="11" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I11" s="4">
         <v>35</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0.28571428571428559</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.15" thickBot="1">
+    <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I12" s="4">
         <v>35</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>0.81114285714285694</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.15" thickBot="1">
+    <row r="13" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I13" s="4">
         <v>40</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>0.22512500000000024</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.15" thickBot="1">
+    <row r="14" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I14" s="4">
         <v>40</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.54387500000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.5" thickBot="1">
+    <row r="15" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I15" s="4">
         <v>40</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.15" thickBot="1">
+    <row r="16" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I16" s="4">
         <v>40</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>0.26337500000000014</v>
       </c>
     </row>
-    <row r="17" spans="9:24" ht="13.5" thickBot="1">
+    <row r="17" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4">
         <v>45</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="9:24" ht="13.15" thickBot="1">
+    <row r="18" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I18" s="4">
         <v>45</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>0.43366666666666664</v>
       </c>
     </row>
-    <row r="19" spans="9:24" ht="13.5" thickBot="1">
+    <row r="19" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I19" s="4">
         <v>45</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="9:24" ht="13.15" thickBot="1">
+    <row r="20" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I20" s="4">
         <v>45</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>0.68233333333333324</v>
       </c>
     </row>
-    <row r="21" spans="9:24" ht="13.15" thickBot="1">
+    <row r="21" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I21" s="4">
         <v>45</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="9:24">
+    <row r="22" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I22" s="4">
         <v>45</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>0.8616666666666668</v>
       </c>
     </row>
-    <row r="23" spans="9:24">
+    <row r="23" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I23" s="6">
         <v>40</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>1.4746250000000001</v>
       </c>
     </row>
-    <row r="24" spans="9:24">
+    <row r="24" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I24" s="6">
         <v>45</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="9:24">
+    <row r="25" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I25" s="6">
         <v>35</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>0.49999999999999978</v>
       </c>
     </row>
-    <row r="26" spans="9:24">
+    <row r="26" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I26" s="6">
         <v>45</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="9:24">
+    <row r="27" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I27" s="6">
         <v>50</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="9:24">
+    <row r="28" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I28" s="6">
         <v>45</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="9:24">
+    <row r="29" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I29" s="6">
         <v>45</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="9:24">
+    <row r="30" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I30" s="6">
         <v>40</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="31" spans="9:24">
+    <row r="31" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I31" s="6">
         <v>50</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>1.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="9:24">
+    <row r="32" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I32" s="6">
         <v>45</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="33" spans="9:16">
+    <row r="33" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I33" s="6">
         <v>50</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>0.5299999999999998</v>
       </c>
     </row>
-    <row r="34" spans="9:16">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I34" s="6">
         <v>50</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>0.70100000000000007</v>
       </c>
     </row>
-    <row r="35" spans="9:16">
+    <row r="35" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I35" s="6">
         <v>50</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>1.5499999999999998</v>
       </c>
     </row>
-    <row r="36" spans="9:16">
+    <row r="36" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I36" s="6">
         <v>50</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="37" spans="9:16">
+    <row r="37" spans="9:16" x14ac:dyDescent="0.35">
       <c r="I37" s="6">
         <v>50</v>
       </c>
@@ -10550,22 +10550,22 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="9:16">
+    <row r="38" spans="9:16" x14ac:dyDescent="0.35">
       <c r="P38" s="11"/>
     </row>
-    <row r="39" spans="9:16">
+    <row r="39" spans="9:16" x14ac:dyDescent="0.35">
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="9:16">
+    <row r="40" spans="9:16" x14ac:dyDescent="0.35">
       <c r="P40" s="11"/>
     </row>
-    <row r="41" spans="9:16">
+    <row r="41" spans="9:16" x14ac:dyDescent="0.35">
       <c r="P41" s="11"/>
     </row>
-    <row r="45" spans="9:16">
+    <row r="45" spans="9:16" x14ac:dyDescent="0.35">
       <c r="O45"/>
     </row>
-    <row r="46" spans="9:16">
+    <row r="46" spans="9:16" x14ac:dyDescent="0.35">
       <c r="O46"/>
     </row>
   </sheetData>
@@ -10583,7 +10583,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.86328125" bestFit="1" customWidth="1"/>
@@ -10594,7 +10594,7 @@
     <col min="15" max="15" width="7.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.5" thickBot="1">
+    <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>52</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="13.5" thickBot="1">
+    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I3" s="17">
         <v>50</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1.7167999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.5" thickBot="1">
+    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I4" s="17">
         <v>45</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="13.5" thickBot="1">
+    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I5" s="17">
         <v>45</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>1.6466666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="13.5" thickBot="1">
+    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I6" s="17">
         <v>50</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>0.99379999999999957</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="13.5" thickBot="1">
+    <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="17">
         <v>45</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>1.0926666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="13.5" thickBot="1">
+    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I8" s="17">
         <v>50</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>0.85039999999999982</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="13.5" thickBot="1">
+    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I9" s="17">
         <v>50</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>0.73939999999999984</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13.5" thickBot="1">
+    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I10" s="17">
         <v>40</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1.0632500000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="13.5" thickBot="1">
+    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I11" s="17">
         <v>50</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>0.59899999999999975</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.5" thickBot="1">
+    <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I12" s="17">
         <v>35</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>1.1994285714285713</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.5" thickBot="1">
+    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I13" s="17">
         <v>45</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>0.68599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I14" s="17">
         <v>40</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>0.81950000000000034</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="13.5" thickBot="1">
+    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I15" s="17">
         <v>50</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>0.45199999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="13.5" thickBot="1">
+    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I16" s="17">
         <v>50</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>0.41119999999999979</v>
       </c>
     </row>
-    <row r="17" spans="9:17" ht="13.5" thickBot="1">
+    <row r="17" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I17" s="17">
         <v>40</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>0.59750000000000014</v>
       </c>
     </row>
-    <row r="18" spans="9:17" ht="13.5" thickBot="1">
+    <row r="18" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I18" s="17">
         <v>35</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>0.7571428571428569</v>
       </c>
     </row>
-    <row r="19" spans="9:17" ht="13.5" thickBot="1">
+    <row r="19" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I19" s="17">
         <v>45</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>0.36133333333333351</v>
       </c>
     </row>
-    <row r="20" spans="9:17" ht="13.5" thickBot="1">
+    <row r="20" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I20" s="17">
         <v>30</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>1.0270000000000001</v>
       </c>
     </row>
-    <row r="21" spans="9:17" ht="13.5" thickBot="1">
+    <row r="21" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I21" s="17">
         <v>30</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>0.94899999999999984</v>
       </c>
     </row>
-    <row r="22" spans="9:17" ht="13.5" thickBot="1">
+    <row r="22" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I22" s="17">
         <v>40</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>0.43625000000000003</v>
       </c>
     </row>
-    <row r="23" spans="9:17" ht="13.5" thickBot="1">
+    <row r="23" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I23" s="17">
         <v>45</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>0.2306666666666668</v>
       </c>
     </row>
-    <row r="24" spans="9:17" ht="13.5" thickBot="1">
+    <row r="24" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I24" s="17">
         <v>40</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0.34550000000000014</v>
       </c>
     </row>
-    <row r="25" spans="9:17" ht="13.5" thickBot="1">
+    <row r="25" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I25" s="17">
         <v>35</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>0.53342857142857136</v>
       </c>
     </row>
-    <row r="26" spans="9:17" ht="13.5" thickBot="1">
+    <row r="26" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I26" s="17">
         <v>35</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>0.48885714285714288</v>
       </c>
     </row>
-    <row r="27" spans="9:17" ht="13.5" thickBot="1">
+    <row r="27" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I27" s="17">
         <v>30</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="9:17" ht="13.5" thickBot="1">
+    <row r="28" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I28" s="17">
         <v>35</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>0.31742857142857117</v>
       </c>
     </row>
-    <row r="29" spans="9:17" ht="13.5" thickBot="1">
+    <row r="29" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I29" s="17">
         <v>40</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>0.11975000000000002</v>
       </c>
     </row>
-    <row r="30" spans="9:17" ht="13.5" thickBot="1">
+    <row r="30" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I30" s="17">
         <v>30</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>0.32899999999999996</v>
       </c>
     </row>
-    <row r="31" spans="9:17" ht="13.15">
+    <row r="31" spans="9:17" ht="13.15" x14ac:dyDescent="0.35">
       <c r="I31" s="17">
         <v>35</v>
       </c>
@@ -11571,9 +11571,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>791.56501207040003</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -11610,12 +11610,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7FF1A96F00B548AE8FA4D86E5C3C6B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42484d4aadc485b95868b0614c9cc901">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2de6f903-a70b-4d4e-9d47-d88418a90129" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e3f4261295b63ab975c65a36ef5f926" ns2:_="">
     <xsd:import namespace="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
@@ -11759,6 +11753,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11769,22 +11769,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93490E2-E40C-41B2-8038-9CAF72FFFCDE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11802,6 +11786,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6736099F-A467-4EDF-97E1-862A5565D775}">
   <ds:schemaRefs>

--- a/cost_model/cost_model.xlsx
+++ b/cost_model/cost_model.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\cost_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eba1ba43692f98ec/Documents/ASE6002/ModelProject/cost_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A63F94-4A7C-426A-9420-4BF497FBB1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13517" documentId="13_ncr:1_{B419944E-7C9D-4821-9DB0-661A8B92BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA0951D1-7E17-40FE-9EEC-58FEB58820FC}"/>
   <bookViews>
-    <workbookView xWindow="-33360" yWindow="2880" windowWidth="23835" windowHeight="15735" activeTab="2" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
   </bookViews>
   <sheets>
-    <sheet name="BrakesExample" sheetId="1" r:id="rId1"/>
-    <sheet name="CHAINSAWold" sheetId="2" r:id="rId2"/>
-    <sheet name="CHAINSAW" sheetId="7" r:id="rId3"/>
-    <sheet name="Motor" sheetId="3" r:id="rId4"/>
-    <sheet name="Bar" sheetId="4" r:id="rId5"/>
-    <sheet name="Saw" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="CHAINSAW" sheetId="7" r:id="rId1"/>
+    <sheet name="Motor" sheetId="3" r:id="rId2"/>
+    <sheet name="Bar" sheetId="4" r:id="rId3"/>
+    <sheet name="Saw" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Bar_length">Bar!$B$2</definedName>
@@ -36,7 +34,7 @@
     <definedName name="sawWeight">Saw!$E$2</definedName>
     <definedName name="varCost">Sheet1!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,49 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
-  <si>
-    <t>Pad</t>
-  </si>
-  <si>
-    <t>surfaceArea</t>
-  </si>
-  <si>
-    <t>sq.in.</t>
-  </si>
-  <si>
-    <t>thickness</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>specificCost</t>
-  </si>
-  <si>
-    <t>$ per cu.in.</t>
-  </si>
-  <si>
-    <t>padCost</t>
-  </si>
-  <si>
-    <t>Caliper</t>
-  </si>
-  <si>
-    <t>pistonDiam</t>
-  </si>
-  <si>
-    <t>caliperCost</t>
-  </si>
-  <si>
-    <t>Rotor</t>
-  </si>
-  <si>
-    <t>rotorOD</t>
-  </si>
-  <si>
-    <t>rotorCost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="186">
   <si>
     <t>Outputs</t>
   </si>
@@ -760,16 +716,24 @@
   <si>
     <t>Startup Costs</t>
   </si>
+  <si>
+    <t>motorcost</t>
+  </si>
+  <si>
+    <t>batterycost</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -903,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -929,17 +893,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1201,20 +1154,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1224,82 +1174,68 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="4" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="4" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -3439,9 +3375,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
@@ -3538,9 +3471,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>53.96</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>45.28</c:v>
                 </c:pt>
@@ -6176,9 +6106,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>141922</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -6528,784 +6458,439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9492C9C8-C10C-434F-BF4D-53E69DBB1757}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="256" width="8.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="e">
-        <f>surfaceArea*thickness*specificCost</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="e">
-        <f>10+20*pistonDiam^2+3*surfaceArea</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="e">
-        <f>25+0.3*rotorOD^2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D50F681-5CC1-8249-8EAC-197C4827DB50}">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.73046875" customWidth="1"/>
-    <col min="6" max="6" width="62.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" customWidth="1"/>
-    <col min="8" max="257" width="8.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="19"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="19"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="19"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="19"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="19"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="19"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="19"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="19"/>
-    </row>
-    <row r="33" spans="1:2" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7301917A-2402-4315-88B5-A72059303FC8}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="24.86328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.86328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1328125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="257" width="8.6640625" style="42" customWidth="1"/>
-    <col min="258" max="16384" width="11.46484375" style="42"/>
+    <col min="1" max="1" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="24.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="257" width="8.6640625" style="25" customWidth="1"/>
+    <col min="258" max="16384" width="11.46484375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>15</v>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F2" s="42" t="s">
-        <v>16</v>
+      <c r="F2" s="25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32">
+        <v>37</v>
+      </c>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="D8" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32">
+        <v>32</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="D11" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="37">
+        <f>I11*110000</f>
+        <v>770000</v>
+      </c>
+      <c r="I11" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="D12" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="32">
+        <f>(I36+7000)*12</f>
+        <v>307500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <v>13</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="32">
+        <f>2*I11*55*2080</f>
+        <v>1601600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <v>24</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="41">
+        <f>(100000+150000+250000)*I14</f>
+        <v>520000</v>
+      </c>
+      <c r="I14" s="38">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="D15" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="25">
+        <v>13</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="43">
+        <f>SUM(H11:H14)</f>
+        <v>3199100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32">
+        <v>15</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B18" s="32"/>
+      <c r="G18" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="B19" s="32">
+        <v>30</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="47">
+        <f>140*H36</f>
+        <v>3500000</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="49">
-        <v>37</v>
-      </c>
-      <c r="D7" s="45"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+      <c r="B21" s="32">
+        <v>52</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="D8" s="45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50" t="s">
+      <c r="B22" s="32"/>
+      <c r="G22" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="49"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="48" t="s">
+      <c r="B23" s="32"/>
+      <c r="G23" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B24" s="32"/>
+      <c r="G24" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="G25" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="G26" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="G27" s="52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="E31" s="25">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="E32" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="D11" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="54">
-        <f>I11*110000</f>
-        <v>1100000</v>
-      </c>
-      <c r="I11" s="55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="D12" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="49">
-        <f>(I36+7000)*12</f>
-        <v>441600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="49">
-        <v>13</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="49">
-        <f>2*I11*55*2080</f>
-        <v>2288000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="49">
-        <v>24</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="58">
-        <f>(100000+150000+250000)*I14</f>
-        <v>550000</v>
-      </c>
-      <c r="I14" s="55">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="D15" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="42">
-        <v>13</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="60">
-        <f>SUM(H11:H14)</f>
-        <v>4379600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="49"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="49">
-        <v>15</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="G18" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="49">
-        <v>30</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="64">
-        <f>140*H36</f>
-        <v>5600000</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="49">
-        <v>52</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="G22" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" s="58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="G23" s="66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="G24" s="67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="G25" s="68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="G26" s="68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="G27" s="69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="49"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="49">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="49">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="E31" s="42">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="E32" s="42">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="E33" s="42">
+      <c r="B33" s="41"/>
+      <c r="E33" s="25">
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="42">
+      <c r="B34" s="25">
         <f>SUM(B6:B33)</f>
         <v>293</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="25">
         <f>E33*E32*E31</f>
         <v>5160</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F35" s="42">
+      <c r="F35" s="25">
         <f>75+142+400</f>
         <v>617</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="25">
         <f>0.63+1+4*0.71</f>
         <v>4.47</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F36" s="64">
+      <c r="F36" s="47">
         <f>F35/6</f>
         <v>102.83333333333333</v>
       </c>
-      <c r="G36" s="64">
+      <c r="G36" s="47">
         <f>G35/6</f>
         <v>0.745</v>
       </c>
-      <c r="H36" s="55">
-        <v>40000</v>
-      </c>
-      <c r="I36" s="70">
+      <c r="H36" s="38">
+        <v>25000</v>
+      </c>
+      <c r="I36" s="53">
         <f>G36*H36</f>
-        <v>29800</v>
+        <v>18625</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G37" s="70">
+      <c r="G37" s="53">
         <f>G36*12</f>
         <v>8.94</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G44" s="42" t="s">
-        <v>195</v>
+      <c r="G44" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G45" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="64">
+      <c r="G45" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="47">
         <v>1709800</v>
       </c>
-      <c r="I45" s="70">
+      <c r="I45" s="53">
         <v>3074400</v>
       </c>
     </row>
@@ -7318,7 +6903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D655582-4061-484E-8974-7F9BDBEF5182}">
   <dimension ref="A1:W61"/>
   <sheetViews>
@@ -7329,242 +6914,242 @@
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
-        <v>49</v>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="G1" s="1"/>
       <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>2.1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <f>MIN(N2:N61)</f>
         <v>0.04</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <f>MAX(N2:N61)</f>
         <v>2.1</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>66</v>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="G2">
         <f>1.931*B2+0.2579</f>
         <v>4.3130000000000006</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="16">
+        <v>53</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="13">
         <v>12</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="13">
         <v>15</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="13">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="14">
         <f t="shared" ref="O2:O33" si="0">M2/N2</f>
         <v>312.5</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="13">
         <v>3000</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="13">
         <v>0.35</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="13">
         <v>24.85</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="13">
         <v>53</v>
       </c>
-      <c r="T2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="16">
+      <c r="T2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="13">
         <v>42</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="13">
         <f t="shared" ref="V2:V33" si="1">M2/Q2</f>
         <v>42.857142857142861</v>
       </c>
-      <c r="W2" s="16" t="s">
-        <v>70</v>
+      <c r="W2" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
-        <v>71</v>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="G3">
         <f>50.039*B2+18.089</f>
         <v>123.1709</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="16">
+        <v>58</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="13">
         <v>12</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="13">
         <v>50</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="13">
         <v>0.16</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="14">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="13">
         <v>3000</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="13">
         <v>0.47</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="13">
         <v>24.02</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="13">
         <v>53.5</v>
       </c>
-      <c r="T3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="16">
+      <c r="T3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="13">
         <v>57</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="13">
         <f t="shared" si="1"/>
         <v>106.38297872340426</v>
       </c>
-      <c r="W3" s="16" t="s">
-        <v>70</v>
+      <c r="W3" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="13">
         <v>12</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="13">
         <v>50</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="13">
         <v>0.16</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="14">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="13">
         <v>3000</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="13">
         <v>0.54</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="13">
         <v>21.35</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="13">
         <v>53.5</v>
       </c>
-      <c r="T4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="16">
+      <c r="T4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="13">
         <v>57</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="13">
         <f t="shared" si="1"/>
         <v>92.592592592592581</v>
       </c>
-      <c r="W4" s="16" t="s">
-        <v>70</v>
+      <c r="W4" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="2"/>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L5">
         <v>24</v>
@@ -7575,7 +7160,7 @@
       <c r="N5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -7592,7 +7177,7 @@
         <v>65.2</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U5">
         <v>36</v>
@@ -7602,13 +7187,13 @@
         <v>66.666666666666671</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="2"/>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L6">
         <v>24</v>
@@ -7619,7 +7204,7 @@
       <c r="N6">
         <v>6.2E-2</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="9">
         <f t="shared" si="0"/>
         <v>209.67741935483872</v>
       </c>
@@ -7636,7 +7221,7 @@
         <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U6">
         <v>42</v>
@@ -7646,12 +7231,12 @@
         <v>43.333333333333336</v>
       </c>
       <c r="W6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>24</v>
@@ -7662,7 +7247,7 @@
       <c r="N7">
         <v>0.13100000000000001</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="9">
         <f t="shared" si="0"/>
         <v>419.84732824427482</v>
       </c>
@@ -7679,7 +7264,7 @@
         <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U7">
         <v>42</v>
@@ -7689,12 +7274,12 @@
         <v>117.02127659574468</v>
       </c>
       <c r="W7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L8">
         <v>24</v>
@@ -7705,7 +7290,7 @@
       <c r="N8">
         <v>0.17899999999999999</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="9">
         <f t="shared" si="0"/>
         <v>418.99441340782124</v>
       </c>
@@ -7722,7 +7307,7 @@
         <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U8">
         <v>42</v>
@@ -7732,12 +7317,12 @@
         <v>125</v>
       </c>
       <c r="W8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L9">
         <v>24</v>
@@ -7748,7 +7333,7 @@
       <c r="N9">
         <v>6.3E-2</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="9">
         <f t="shared" si="0"/>
         <v>412.69841269841271</v>
       </c>
@@ -7765,7 +7350,7 @@
         <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U9">
         <v>42</v>
@@ -7775,12 +7360,12 @@
         <v>86.666666666666671</v>
       </c>
       <c r="W9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <v>24</v>
@@ -7791,7 +7376,7 @@
       <c r="N10">
         <v>0.125</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="9">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
@@ -7808,7 +7393,7 @@
         <v>59.2</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U10">
         <v>42</v>
@@ -7818,12 +7403,12 @@
         <v>87.5</v>
       </c>
       <c r="W10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L11">
         <v>24</v>
@@ -7834,7 +7419,7 @@
       <c r="N11">
         <v>0.185</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="9">
         <f t="shared" si="0"/>
         <v>418.91891891891891</v>
       </c>
@@ -7851,7 +7436,7 @@
         <v>79</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U11">
         <v>42</v>
@@ -7861,12 +7446,12 @@
         <v>119.23076923076923</v>
       </c>
       <c r="W11" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K12" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L12">
         <v>24</v>
@@ -7877,7 +7462,7 @@
       <c r="N12">
         <v>0.25</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="9">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
@@ -7894,7 +7479,7 @@
         <v>99.2</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U12">
         <v>42</v>
@@ -7904,12 +7489,12 @@
         <v>123.52941176470588</v>
       </c>
       <c r="W12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K13" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="L13">
         <v>24</v>
@@ -7920,7 +7505,7 @@
       <c r="N13">
         <v>0.08</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -7937,7 +7522,7 @@
         <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U13">
         <v>42</v>
@@ -7947,12 +7532,12 @@
         <v>65.78947368421052</v>
       </c>
       <c r="W13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="L14">
         <v>24</v>
@@ -7963,7 +7548,7 @@
       <c r="N14">
         <v>0.16</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -7980,7 +7565,7 @@
         <v>62</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U14">
         <v>42</v>
@@ -7990,12 +7575,12 @@
         <v>94.339622641509436</v>
       </c>
       <c r="W14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K15" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L15">
         <v>24</v>
@@ -8006,7 +7591,7 @@
       <c r="N15">
         <v>0.24</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8023,7 +7608,7 @@
         <v>78</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U15">
         <v>42</v>
@@ -8033,12 +7618,12 @@
         <v>110.29411764705881</v>
       </c>
       <c r="W15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="L16">
         <v>24</v>
@@ -8049,7 +7634,7 @@
       <c r="N16">
         <v>0.25</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="9">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
@@ -8066,7 +7651,7 @@
         <v>101</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U16">
         <v>42</v>
@@ -8076,12 +7661,12 @@
         <v>89.772727272727266</v>
       </c>
       <c r="W16" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K17" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="L17">
         <v>24</v>
@@ -8092,7 +7677,7 @@
       <c r="N17">
         <v>6.3E-2</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="9">
         <f t="shared" si="0"/>
         <v>317.46031746031747</v>
       </c>
@@ -8109,7 +7694,7 @@
         <v>41</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U17">
         <v>42</v>
@@ -8119,12 +7704,12 @@
         <v>62.5</v>
       </c>
       <c r="W17" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K18" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="L18">
         <v>24</v>
@@ -8135,7 +7720,7 @@
       <c r="N18">
         <v>0.125</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="9">
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
@@ -8152,7 +7737,7 @@
         <v>61</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U18">
         <v>42</v>
@@ -8162,12 +7747,12 @@
         <v>78</v>
       </c>
       <c r="W18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K19" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L19">
         <v>24</v>
@@ -8178,7 +7763,7 @@
       <c r="N19">
         <v>0.19</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="9">
         <f t="shared" si="0"/>
         <v>315.78947368421052</v>
       </c>
@@ -8195,7 +7780,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U19">
         <v>42</v>
@@ -8205,12 +7790,12 @@
         <v>83.333333333333343</v>
       </c>
       <c r="W19" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K20" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="L20">
         <v>24</v>
@@ -8221,7 +7806,7 @@
       <c r="N20">
         <v>0.04</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="9">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
@@ -8238,7 +7823,7 @@
         <v>43</v>
       </c>
       <c r="T20" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U20">
         <v>42</v>
@@ -8248,12 +7833,12 @@
         <v>43.333333333333336</v>
       </c>
       <c r="W20" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K21" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L21">
         <v>24</v>
@@ -8264,7 +7849,7 @@
       <c r="N21">
         <v>0.08</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8281,7 +7866,7 @@
         <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U21">
         <v>42</v>
@@ -8291,12 +7876,12 @@
         <v>69.444444444444443</v>
       </c>
       <c r="W21" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L22">
         <v>24</v>
@@ -8307,7 +7892,7 @@
       <c r="N22">
         <v>0.16</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8324,7 +7909,7 @@
         <v>73</v>
       </c>
       <c r="T22" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U22">
         <v>42</v>
@@ -8334,12 +7919,12 @@
         <v>96.153846153846146</v>
       </c>
       <c r="W22" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K23" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="L23">
         <v>24</v>
@@ -8350,7 +7935,7 @@
       <c r="N23">
         <v>0.23</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="9">
         <f t="shared" si="0"/>
         <v>365.21739130434781</v>
       </c>
@@ -8367,7 +7952,7 @@
         <v>49</v>
       </c>
       <c r="T23" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U23">
         <v>57</v>
@@ -8377,12 +7962,12 @@
         <v>152.72727272727272</v>
       </c>
       <c r="W23" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K24" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="L24">
         <v>24</v>
@@ -8393,7 +7978,7 @@
       <c r="N24">
         <v>0.37</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="9">
         <f t="shared" si="0"/>
         <v>362.16216216216219</v>
       </c>
@@ -8410,7 +7995,7 @@
         <v>69</v>
       </c>
       <c r="T24" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U24">
         <v>57</v>
@@ -8420,12 +8005,12 @@
         <v>163.41463414634148</v>
       </c>
       <c r="W24" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K25" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -8436,7 +8021,7 @@
       <c r="N25">
         <v>0.47</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="9">
         <f t="shared" si="0"/>
         <v>365.95744680851067</v>
       </c>
@@ -8453,7 +8038,7 @@
         <v>69</v>
       </c>
       <c r="T25" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U25">
         <v>57</v>
@@ -8463,12 +8048,12 @@
         <v>212.34567901234567</v>
       </c>
       <c r="W25" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K26" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -8479,7 +8064,7 @@
       <c r="N26">
         <v>0.6</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="9">
         <f t="shared" si="0"/>
         <v>366.66666666666669</v>
       </c>
@@ -8496,7 +8081,7 @@
         <v>89</v>
       </c>
       <c r="T26" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U26">
         <v>57</v>
@@ -8506,12 +8091,12 @@
         <v>186.4406779661017</v>
       </c>
       <c r="W26" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K27" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L27">
         <v>24</v>
@@ -8522,7 +8107,7 @@
       <c r="N27">
         <v>0.16</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="9">
         <f t="shared" si="0"/>
         <v>418.75</v>
       </c>
@@ -8539,7 +8124,7 @@
         <v>53.5</v>
       </c>
       <c r="T27" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U27">
         <v>57</v>
@@ -8549,12 +8134,12 @@
         <v>128.84615384615384</v>
       </c>
       <c r="W27" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K28" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -8565,7 +8150,7 @@
       <c r="N28">
         <v>0.2</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="9">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
@@ -8582,7 +8167,7 @@
         <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U28">
         <v>57</v>
@@ -8592,12 +8177,12 @@
         <v>90</v>
       </c>
       <c r="W28" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K29" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -8608,7 +8193,7 @@
       <c r="N29">
         <v>0.3</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="9">
         <f t="shared" si="0"/>
         <v>313.33333333333337</v>
       </c>
@@ -8625,7 +8210,7 @@
         <v>76</v>
       </c>
       <c r="T29" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U29">
         <v>57</v>
@@ -8635,12 +8220,12 @@
         <v>104.44444444444444</v>
       </c>
       <c r="W29" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K30" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L30">
         <v>24</v>
@@ -8651,7 +8236,7 @@
       <c r="N30">
         <v>0.16</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8668,7 +8253,7 @@
         <v>53.5</v>
       </c>
       <c r="T30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U30">
         <v>57</v>
@@ -8678,12 +8263,12 @@
         <v>87.719298245614041</v>
       </c>
       <c r="W30" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K31" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L31">
         <v>24</v>
@@ -8694,7 +8279,7 @@
       <c r="N31">
         <v>0.32</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="9">
         <f t="shared" si="0"/>
         <v>315.625</v>
       </c>
@@ -8711,7 +8296,7 @@
         <v>73.5</v>
       </c>
       <c r="T31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U31">
         <v>57</v>
@@ -8721,12 +8306,12 @@
         <v>118.82352941176471</v>
       </c>
       <c r="W31" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="11:23" x14ac:dyDescent="0.35">
       <c r="K32" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -8737,7 +8322,7 @@
       <c r="N32">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="9">
         <f t="shared" si="0"/>
         <v>313.79310344827587</v>
       </c>
@@ -8754,7 +8339,7 @@
         <v>73.5</v>
       </c>
       <c r="T32" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U32">
         <v>57</v>
@@ -8764,12 +8349,12 @@
         <v>115.18987341772151</v>
       </c>
       <c r="W32" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K33" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L33">
         <v>24</v>
@@ -8780,7 +8365,7 @@
       <c r="N33">
         <v>0.16</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="9">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
@@ -8797,7 +8382,7 @@
         <v>53.5</v>
       </c>
       <c r="T33" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U33">
         <v>57</v>
@@ -8807,12 +8392,12 @@
         <v>92.592592592592581</v>
       </c>
       <c r="W33" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K34" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L34">
         <v>24</v>
@@ -8823,7 +8408,7 @@
       <c r="N34">
         <v>0.35</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="9">
         <f t="shared" ref="O34:O61" si="2">M34/N34</f>
         <v>314.28571428571428</v>
       </c>
@@ -8840,7 +8425,7 @@
         <v>70</v>
       </c>
       <c r="T34" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U34">
         <v>86</v>
@@ -8850,672 +8435,672 @@
         <v>66.666666666666671</v>
       </c>
       <c r="W34" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J35" s="16"/>
-      <c r="K35" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="L35" s="16">
+      <c r="J35" s="13"/>
+      <c r="K35" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="13">
         <v>36</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="13">
         <v>50</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="13">
         <v>0.16</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="14">
         <f t="shared" si="2"/>
         <v>312.5</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="13">
         <v>3000</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="13">
         <v>0.53</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R35" s="13">
         <v>24.02</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S35" s="13">
         <v>62</v>
       </c>
-      <c r="T35" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U35" s="16">
+      <c r="T35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U35" s="13">
         <v>42</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V35" s="13">
         <f t="shared" si="3"/>
         <v>94.339622641509436</v>
       </c>
-      <c r="W35" s="16" t="s">
-        <v>70</v>
+      <c r="W35" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J36" s="16"/>
-      <c r="K36" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" s="16">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="13">
         <v>36</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="13">
         <v>25</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="13">
         <v>5.5E-2</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="14">
         <f t="shared" si="2"/>
         <v>454.54545454545456</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="13">
         <v>4400</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="13">
         <v>0.4</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36" s="13">
         <v>23.54</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S36" s="13">
         <v>43</v>
       </c>
-      <c r="T36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U36" s="16">
+      <c r="T36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" s="13">
         <v>57</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36" s="13">
         <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
-      <c r="W36" s="16" t="s">
-        <v>70</v>
+      <c r="W36" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J37" s="16"/>
-      <c r="K37" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L37" s="16">
+      <c r="J37" s="13"/>
+      <c r="K37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="13">
         <v>36</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="13">
         <v>46</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="13">
         <v>0.11</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="14">
         <f t="shared" si="2"/>
         <v>418.18181818181819</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="13">
         <v>4000</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q37" s="13">
         <v>0.53</v>
       </c>
-      <c r="R37" s="16">
+      <c r="R37" s="13">
         <v>24.85</v>
       </c>
-      <c r="S37" s="16">
+      <c r="S37" s="13">
         <v>49</v>
       </c>
-      <c r="T37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U37" s="16">
+      <c r="T37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U37" s="13">
         <v>57</v>
       </c>
-      <c r="V37" s="16">
+      <c r="V37" s="13">
         <f t="shared" si="3"/>
         <v>86.79245283018868</v>
       </c>
-      <c r="W37" s="16" t="s">
-        <v>70</v>
+      <c r="W37" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J38" s="16"/>
-      <c r="K38" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L38" s="16">
+      <c r="J38" s="13"/>
+      <c r="K38" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="13">
         <v>36</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="13">
         <v>99</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="13">
         <v>0.22</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="14">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="13">
         <v>4300</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="13">
         <v>0.73</v>
       </c>
-      <c r="R38" s="16">
+      <c r="R38" s="13">
         <v>30.08</v>
       </c>
-      <c r="S38" s="16">
+      <c r="S38" s="13">
         <v>69</v>
       </c>
-      <c r="T38" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U38" s="16">
+      <c r="T38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38" s="13">
         <v>57</v>
       </c>
-      <c r="V38" s="16">
+      <c r="V38" s="13">
         <f t="shared" si="3"/>
         <v>135.61643835616439</v>
       </c>
-      <c r="W38" s="16" t="s">
-        <v>70</v>
+      <c r="W38" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J39" s="16"/>
-      <c r="K39" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L39" s="16">
+      <c r="J39" s="13"/>
+      <c r="K39" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="13">
         <v>36</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="13">
         <v>138</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="13">
         <v>0.33</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="14">
         <f t="shared" si="2"/>
         <v>418.18181818181819</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39" s="13">
         <v>4000</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q39" s="13">
         <v>1.03</v>
       </c>
-      <c r="R39" s="16">
+      <c r="R39" s="13">
         <v>36.619999999999997</v>
       </c>
-      <c r="S39" s="16">
+      <c r="S39" s="13">
         <v>89</v>
       </c>
-      <c r="T39" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U39" s="16">
+      <c r="T39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39" s="13">
         <v>57</v>
       </c>
-      <c r="V39" s="16">
+      <c r="V39" s="13">
         <f t="shared" si="3"/>
         <v>133.98058252427185</v>
       </c>
-      <c r="W39" s="16" t="s">
-        <v>70</v>
+      <c r="W39" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J40" s="16"/>
-      <c r="K40" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L40" s="16">
+      <c r="J40" s="13"/>
+      <c r="K40" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="13">
         <v>36</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="13">
         <v>184</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="13">
         <v>0.44</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="14">
         <f t="shared" si="2"/>
         <v>418.18181818181819</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40" s="13">
         <v>4000</v>
       </c>
-      <c r="Q40" s="16">
+      <c r="Q40" s="13">
         <v>1.25</v>
       </c>
-      <c r="R40" s="16">
+      <c r="R40" s="13">
         <v>41.85</v>
       </c>
-      <c r="S40" s="16">
+      <c r="S40" s="13">
         <v>109</v>
       </c>
-      <c r="T40" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U40" s="16">
+      <c r="T40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U40" s="13">
         <v>57</v>
       </c>
-      <c r="V40" s="16">
+      <c r="V40" s="13">
         <f t="shared" si="3"/>
         <v>147.19999999999999</v>
       </c>
-      <c r="W40" s="16" t="s">
-        <v>70</v>
+      <c r="W40" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J41" s="16"/>
-      <c r="K41" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L41" s="16">
+      <c r="J41" s="13"/>
+      <c r="K41" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="13">
         <v>36</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M41" s="13">
         <v>188</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N41" s="13">
         <v>0.6</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41" s="13">
         <v>3000</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="13">
         <v>1.35</v>
       </c>
-      <c r="R41" s="16">
+      <c r="R41" s="13">
         <v>58.7</v>
       </c>
-      <c r="S41" s="16">
+      <c r="S41" s="13">
         <v>100</v>
       </c>
-      <c r="T41" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U41" s="16">
+      <c r="T41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" s="13">
         <v>57</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V41" s="13">
         <f t="shared" si="3"/>
         <v>139.25925925925924</v>
       </c>
-      <c r="W41" s="16" t="s">
-        <v>70</v>
+      <c r="W41" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J42" s="16"/>
-      <c r="K42" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L42" s="16">
+      <c r="J42" s="13"/>
+      <c r="K42" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="13">
         <v>36</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="13">
         <v>126</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="13">
         <v>0.4</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="14">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="13">
         <v>3000</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="13">
         <v>1.03</v>
       </c>
-      <c r="R42" s="16">
+      <c r="R42" s="13">
         <v>42.69</v>
       </c>
-      <c r="S42" s="16">
+      <c r="S42" s="13">
         <v>79</v>
       </c>
-      <c r="T42" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U42" s="16">
+      <c r="T42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U42" s="13">
         <v>57</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V42" s="13">
         <f t="shared" si="3"/>
         <v>122.33009708737863</v>
       </c>
-      <c r="W42" s="16" t="s">
-        <v>70</v>
+      <c r="W42" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J43" s="16"/>
-      <c r="K43" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="L43" s="16">
+      <c r="J43" s="13"/>
+      <c r="K43" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="13">
         <v>36</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="13">
         <v>188</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="13">
         <v>0.6</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="13">
         <v>3000</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="13">
         <v>1.49</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R43" s="13">
         <v>38.69</v>
       </c>
-      <c r="S43" s="16">
+      <c r="S43" s="13">
         <v>116</v>
       </c>
-      <c r="T43" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U43" s="16">
+      <c r="T43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U43" s="13">
         <v>57</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V43" s="13">
         <f t="shared" si="3"/>
         <v>126.1744966442953</v>
       </c>
-      <c r="W43" s="16" t="s">
-        <v>70</v>
+      <c r="W43" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J44" s="16"/>
-      <c r="K44" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="16">
+      <c r="J44" s="13"/>
+      <c r="K44" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="13">
         <v>36</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="13">
         <v>94</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="13">
         <v>0.3</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="13">
         <v>3000</v>
       </c>
-      <c r="Q44" s="16">
+      <c r="Q44" s="13">
         <v>0.9</v>
       </c>
-      <c r="R44" s="16">
+      <c r="R44" s="13">
         <v>28.02</v>
       </c>
-      <c r="S44" s="16">
+      <c r="S44" s="13">
         <v>76</v>
       </c>
-      <c r="T44" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U44" s="16">
+      <c r="T44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U44" s="13">
         <v>57</v>
       </c>
-      <c r="V44" s="16">
+      <c r="V44" s="13">
         <f t="shared" si="3"/>
         <v>104.44444444444444</v>
       </c>
-      <c r="W44" s="16" t="s">
-        <v>70</v>
+      <c r="W44" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J45" s="16"/>
-      <c r="K45" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L45" s="16">
+      <c r="J45" s="13"/>
+      <c r="K45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="13">
         <v>36</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="13">
         <v>141</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="13">
         <v>0.45</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333331</v>
       </c>
-      <c r="P45" s="16">
+      <c r="P45" s="13">
         <v>3000</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45" s="13">
         <v>0.91</v>
       </c>
-      <c r="R45" s="16">
+      <c r="R45" s="13">
         <v>33.35</v>
       </c>
-      <c r="S45" s="16">
+      <c r="S45" s="13">
         <v>96</v>
       </c>
-      <c r="T45" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U45" s="16">
+      <c r="T45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U45" s="13">
         <v>57</v>
       </c>
-      <c r="V45" s="16">
+      <c r="V45" s="13">
         <f t="shared" si="3"/>
         <v>154.94505494505495</v>
       </c>
-      <c r="W45" s="16" t="s">
-        <v>70</v>
+      <c r="W45" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J46" s="16"/>
-      <c r="K46" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="16">
+      <c r="J46" s="13"/>
+      <c r="K46" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="13">
         <v>36</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="13">
         <v>101</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N46" s="13">
         <v>0.32</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="14">
         <f t="shared" si="2"/>
         <v>315.625</v>
       </c>
-      <c r="P46" s="16">
+      <c r="P46" s="13">
         <v>3000</v>
       </c>
-      <c r="Q46" s="16">
+      <c r="Q46" s="13">
         <v>0.85</v>
       </c>
-      <c r="R46" s="16">
+      <c r="R46" s="13">
         <v>37.36</v>
       </c>
-      <c r="S46" s="16">
+      <c r="S46" s="13">
         <v>73.5</v>
       </c>
-      <c r="T46" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U46" s="16">
+      <c r="T46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U46" s="13">
         <v>57</v>
       </c>
-      <c r="V46" s="16">
+      <c r="V46" s="13">
         <f t="shared" si="3"/>
         <v>118.82352941176471</v>
       </c>
-      <c r="W46" s="16" t="s">
-        <v>70</v>
+      <c r="W46" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J47" s="16"/>
-      <c r="K47" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="L47" s="16">
+      <c r="J47" s="13"/>
+      <c r="K47" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="13">
         <v>36</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M47" s="13">
         <v>141</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N47" s="13">
         <v>0.45</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="14">
         <f t="shared" si="2"/>
         <v>313.33333333333331</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P47" s="13">
         <v>3000</v>
       </c>
-      <c r="Q47" s="16">
+      <c r="Q47" s="13">
         <v>1.1299999999999999</v>
       </c>
-      <c r="R47" s="16">
+      <c r="R47" s="13">
         <v>49.36</v>
       </c>
-      <c r="S47" s="16">
+      <c r="S47" s="13">
         <v>93.5</v>
       </c>
-      <c r="T47" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U47" s="16">
+      <c r="T47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47" s="13">
         <v>57</v>
       </c>
-      <c r="V47" s="16">
+      <c r="V47" s="13">
         <f t="shared" si="3"/>
         <v>124.77876106194691</v>
       </c>
-      <c r="W47" s="16" t="s">
-        <v>70</v>
+      <c r="W47" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J48" s="16"/>
-      <c r="K48" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="L48" s="16">
+      <c r="J48" s="13"/>
+      <c r="K48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L48" s="13">
         <v>36</v>
       </c>
-      <c r="M48" s="16">
+      <c r="M48" s="13">
         <v>91</v>
       </c>
-      <c r="N48" s="16">
+      <c r="N48" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="14">
         <f t="shared" si="2"/>
         <v>313.79310344827587</v>
       </c>
-      <c r="P48" s="16">
+      <c r="P48" s="13">
         <v>3000</v>
       </c>
-      <c r="Q48" s="16">
+      <c r="Q48" s="13">
         <v>0.79</v>
       </c>
-      <c r="R48" s="16">
+      <c r="R48" s="13">
         <v>29.35</v>
       </c>
-      <c r="S48" s="16">
+      <c r="S48" s="13">
         <v>73.5</v>
       </c>
-      <c r="T48" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U48" s="16">
+      <c r="T48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U48" s="13">
         <v>57</v>
       </c>
-      <c r="V48" s="16">
+      <c r="V48" s="13">
         <f t="shared" si="3"/>
         <v>115.18987341772151</v>
       </c>
-      <c r="W48" s="16" t="s">
-        <v>70</v>
+      <c r="W48" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="10:23" x14ac:dyDescent="0.35">
-      <c r="J49" s="16"/>
-      <c r="K49" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="L49" s="16">
+      <c r="J49" s="13"/>
+      <c r="K49" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="13">
         <v>36</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="13">
         <v>129</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N49" s="13">
         <v>0.41</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="14">
         <f t="shared" si="2"/>
         <v>314.63414634146341</v>
       </c>
-      <c r="P49" s="16">
+      <c r="P49" s="13">
         <v>3000</v>
       </c>
-      <c r="Q49" s="16">
+      <c r="Q49" s="13">
         <v>1.04</v>
       </c>
-      <c r="R49" s="16">
+      <c r="R49" s="13">
         <v>34.69</v>
       </c>
-      <c r="S49" s="16">
+      <c r="S49" s="13">
         <v>93.5</v>
       </c>
-      <c r="T49" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U49" s="16">
+      <c r="T49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U49" s="13">
         <v>57</v>
       </c>
-      <c r="V49" s="16">
+      <c r="V49" s="13">
         <f t="shared" si="3"/>
         <v>124.03846153846153</v>
       </c>
-      <c r="W49" s="16" t="s">
-        <v>70</v>
+      <c r="W49" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K50" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L50">
         <v>48</v>
@@ -9526,7 +9111,7 @@
       <c r="N50">
         <v>0.24</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="9">
         <f t="shared" si="2"/>
         <v>312.5</v>
       </c>
@@ -9543,7 +9128,7 @@
         <v>78</v>
       </c>
       <c r="T50" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U50">
         <v>42</v>
@@ -9553,12 +9138,12 @@
         <v>110.29411764705881</v>
       </c>
       <c r="W50" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K51" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L51">
         <v>48</v>
@@ -9569,7 +9154,7 @@
       <c r="N51">
         <v>0.25</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O51" s="9">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
@@ -9586,7 +9171,7 @@
         <v>101</v>
       </c>
       <c r="T51" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U51">
         <v>42</v>
@@ -9596,12 +9181,12 @@
         <v>89.772727272727266</v>
       </c>
       <c r="W51" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K52" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L52">
         <v>48</v>
@@ -9612,7 +9197,7 @@
       <c r="N52">
         <v>0.125</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="9">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
@@ -9629,7 +9214,7 @@
         <v>61</v>
       </c>
       <c r="T52" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U52">
         <v>42</v>
@@ -9639,12 +9224,12 @@
         <v>78</v>
       </c>
       <c r="W52" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K53" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L53">
         <v>48</v>
@@ -9655,7 +9240,7 @@
       <c r="N53">
         <v>0.19</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="9">
         <f t="shared" si="2"/>
         <v>315.78947368421052</v>
       </c>
@@ -9672,7 +9257,7 @@
         <v>81</v>
       </c>
       <c r="T53" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U53">
         <v>42</v>
@@ -9682,12 +9267,12 @@
         <v>83.333333333333343</v>
       </c>
       <c r="W53" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K54" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L54">
         <v>48</v>
@@ -9698,7 +9283,7 @@
       <c r="N54">
         <v>0.6</v>
       </c>
-      <c r="O54" s="12">
+      <c r="O54" s="9">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
@@ -9715,7 +9300,7 @@
         <v>100</v>
       </c>
       <c r="T54" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U54">
         <v>57</v>
@@ -9725,12 +9310,12 @@
         <v>139.25925925925924</v>
       </c>
       <c r="W54" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K55" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L55">
         <v>48</v>
@@ -9741,7 +9326,7 @@
       <c r="N55">
         <v>0.6</v>
       </c>
-      <c r="O55" s="12">
+      <c r="O55" s="9">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
@@ -9758,7 +9343,7 @@
         <v>116</v>
       </c>
       <c r="T55" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U55">
         <v>57</v>
@@ -9768,12 +9353,12 @@
         <v>126.1744966442953</v>
       </c>
       <c r="W55" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K56" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L56">
         <v>48</v>
@@ -9784,7 +9369,7 @@
       <c r="N56">
         <v>0.45</v>
       </c>
-      <c r="O56" s="12">
+      <c r="O56" s="9">
         <f t="shared" si="2"/>
         <v>313.33333333333331</v>
       </c>
@@ -9801,7 +9386,7 @@
         <v>93.5</v>
       </c>
       <c r="T56" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U56">
         <v>57</v>
@@ -9811,12 +9396,12 @@
         <v>124.77876106194691</v>
       </c>
       <c r="W56" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K57" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L57">
         <v>48</v>
@@ -9827,7 +9412,7 @@
       <c r="N57">
         <v>0.6</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="9">
         <f t="shared" si="2"/>
         <v>313.33333333333337</v>
       </c>
@@ -9844,7 +9429,7 @@
         <v>113.5</v>
       </c>
       <c r="T57" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U57">
         <v>57</v>
@@ -9854,12 +9439,12 @@
         <v>133.33333333333334</v>
       </c>
       <c r="W57" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K58" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L58">
         <v>48</v>
@@ -9870,7 +9455,7 @@
       <c r="N58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="9">
         <f t="shared" si="2"/>
         <v>314.03508771929825</v>
       </c>
@@ -9887,7 +9472,7 @@
         <v>113.5</v>
       </c>
       <c r="T58" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U58">
         <v>57</v>
@@ -9897,12 +9482,12 @@
         <v>138.75968992248062</v>
       </c>
       <c r="W58" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K59" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L59">
         <v>48</v>
@@ -9913,7 +9498,7 @@
       <c r="N59">
         <v>0.41</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="9">
         <f t="shared" si="2"/>
         <v>314.63414634146341</v>
       </c>
@@ -9930,7 +9515,7 @@
         <v>93.5</v>
       </c>
       <c r="T59" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U59">
         <v>57</v>
@@ -9940,12 +9525,12 @@
         <v>124.03846153846153</v>
       </c>
       <c r="W59" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K60" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L60">
         <v>48</v>
@@ -9956,7 +9541,7 @@
       <c r="N60">
         <v>1.4</v>
       </c>
-      <c r="O60" s="12">
+      <c r="O60" s="9">
         <f t="shared" si="2"/>
         <v>314.28571428571428</v>
       </c>
@@ -9973,7 +9558,7 @@
         <v>108</v>
       </c>
       <c r="T60" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U60">
         <v>86</v>
@@ -9983,12 +9568,12 @@
         <v>137.5</v>
       </c>
       <c r="W60" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="10:23" x14ac:dyDescent="0.35">
       <c r="K61" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L61">
         <v>48</v>
@@ -9999,7 +9584,7 @@
       <c r="N61">
         <v>2.1</v>
       </c>
-      <c r="O61" s="12">
+      <c r="O61" s="9">
         <f t="shared" si="2"/>
         <v>314.28571428571428</v>
       </c>
@@ -10016,7 +9601,7 @@
         <v>135</v>
       </c>
       <c r="T61" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="U61">
         <v>86</v>
@@ -10026,7 +9611,7 @@
         <v>157.14285714285714</v>
       </c>
       <c r="W61" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -10035,624 +9620,624 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230E1EB1-38B5-4FFE-A36F-3B9B55345D99}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="16.265625" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="15" max="15" width="8.73046875" style="13"/>
+    <col min="15" max="15" width="8.73046875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>0.39</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="13">
-        <f>0.0408*B2^2-1.7314*B2+46.597</f>
-        <v>31.375000000000007</v>
+        <v>121</v>
+      </c>
+      <c r="E2" s="10">
+        <f>0.0408*(B2/10)^2-1.7314*(B2/10)+46.597</f>
+        <v>46.5295374568</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <f>B2*0.06</f>
-        <v>1.7999999999999998</v>
+        <f>(B2/10)*0.06</f>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="7">
+        <v>153</v>
+      </c>
+      <c r="I3" s="4">
         <v>30</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="J3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="5">
         <v>33.369999999999997</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <f>20*(I3/30)</f>
         <v>20</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="11">
         <f>N3/O3-1</f>
         <v>0.66849999999999987</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>30</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="J4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="5">
         <v>30.58</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="10">
         <f t="shared" ref="O4:O37" si="0">20*(I4/30)</f>
         <v>20</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="11">
         <f t="shared" ref="P4:P37" si="1">N4/O4-1</f>
         <v>0.52899999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>30</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="J5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="5">
         <v>25.02</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="11">
         <f t="shared" si="1"/>
         <v>0.25099999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>30</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="J6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="5">
         <v>28.06</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="11">
         <f t="shared" si="1"/>
         <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>30</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="J7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="5">
         <v>42.26</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="11">
         <f t="shared" si="1"/>
         <v>1.113</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>35</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="J8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="5">
         <v>38.619999999999997</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="11">
         <f t="shared" si="1"/>
         <v>0.6551428571428568</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>35</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="J9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="5">
         <v>31.35</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="11">
         <f t="shared" si="1"/>
         <v>0.34357142857142842</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>35</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="J10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="5">
         <v>30.59</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="11">
         <f t="shared" si="1"/>
         <v>0.31099999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>35</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="J11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="5">
         <v>30</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="11">
         <f t="shared" si="1"/>
         <v>0.28571428571428559</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>35</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="J12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" s="5">
         <v>42.26</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="11">
         <f t="shared" si="1"/>
         <v>0.81114285714285694</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>40</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="J13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="5">
         <v>32.67</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="11">
         <f t="shared" si="1"/>
         <v>0.22512500000000024</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>40</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="J14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="5">
         <v>41.17</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="11">
         <f t="shared" si="1"/>
         <v>0.54387500000000011</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>40</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="J15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="5">
         <v>34.47</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="11">
         <f t="shared" si="1"/>
         <v>0.29262500000000014</v>
       </c>
-      <c r="S15" s="11" t="s">
-        <v>150</v>
+      <c r="S15" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>40</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N16" s="8">
+      <c r="J16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16" s="5">
         <v>33.69</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="11">
         <f t="shared" si="1"/>
         <v>0.26337500000000014</v>
       </c>
     </row>
     <row r="17" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>45</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="J17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="5">
         <v>40.69</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="11">
         <f t="shared" si="1"/>
         <v>0.35633333333333317</v>
       </c>
-      <c r="S17" s="11" t="s">
-        <v>151</v>
+      <c r="S17" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>45</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="J18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="5">
         <v>43.01</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="11">
         <f t="shared" si="1"/>
         <v>0.43366666666666664</v>
       </c>
     </row>
     <row r="19" spans="9:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>45</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="J19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="5">
         <v>53.99</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="11">
         <f t="shared" si="1"/>
         <v>0.79966666666666675</v>
       </c>
-      <c r="S19" s="11" t="s">
-        <v>152</v>
+      <c r="S19" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>45</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="J20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="5">
         <v>50.47</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="11">
         <f t="shared" si="1"/>
         <v>0.68233333333333324</v>
       </c>
     </row>
     <row r="21" spans="9:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>45</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="J21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="5">
         <v>46.93</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="11">
         <f t="shared" si="1"/>
         <v>0.56433333333333335</v>
       </c>
       <c r="S21" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="T21">
         <v>225</v>
@@ -10661,321 +10246,321 @@
         <v>30</v>
       </c>
       <c r="W21" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="X21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>45</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N22" s="8">
+      <c r="J22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="5">
         <v>55.85</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="11">
         <f t="shared" si="1"/>
         <v>0.8616666666666668</v>
       </c>
     </row>
     <row r="23" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I23" s="9">
+      <c r="I23" s="6">
         <v>40</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="N23" s="10">
+      <c r="L23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" s="7">
         <v>65.989999999999995</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="11">
         <f t="shared" si="1"/>
         <v>1.4746250000000001</v>
       </c>
     </row>
     <row r="24" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I24" s="9">
+      <c r="I24" s="6">
         <v>45</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="7">
         <v>54.99</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="11">
         <f t="shared" si="1"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S24" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="T24">
         <v>130</v>
       </c>
       <c r="U24" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="V24">
         <v>20</v>
       </c>
       <c r="W24" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I25" s="9">
+      <c r="I25" s="6">
         <v>35</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="7">
         <v>35</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="10">
         <f t="shared" si="0"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="11">
         <f t="shared" si="1"/>
         <v>0.49999999999999978</v>
       </c>
     </row>
     <row r="26" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>45</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="7">
         <v>60</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I27" s="9">
+      <c r="I27" s="6">
         <v>50</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="7">
         <v>50</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="S27" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="T27">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I28" s="9">
+      <c r="I28" s="6">
         <v>45</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="7">
         <v>60</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I29" s="9">
+      <c r="I29" s="6">
         <v>45</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="7">
         <v>54</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="11">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="S29" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I30" s="9">
+      <c r="I30" s="6">
         <v>40</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="7">
         <v>60</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="10">
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="11">
         <f>N30/O30-1</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="31" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I31" s="9">
+      <c r="I31" s="6">
         <v>50</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="7">
         <v>70</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="11">
         <f t="shared" si="1"/>
         <v>1.0999999999999996</v>
       </c>
     </row>
     <row r="32" spans="9:24" x14ac:dyDescent="0.35">
-      <c r="I32" s="9">
+      <c r="I32" s="6">
         <v>45</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="7">
         <v>38</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="11">
         <f t="shared" si="1"/>
         <v>0.26666666666666661</v>
       </c>
     </row>
     <row r="33" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I33" s="9">
+      <c r="I33" s="6">
         <v>50</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="7">
         <v>51</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="11">
         <f t="shared" si="1"/>
         <v>0.5299999999999998</v>
       </c>
     </row>
     <row r="34" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I34" s="9">
+      <c r="I34" s="6">
         <v>50</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="7">
         <v>56.7</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="11">
         <f t="shared" si="1"/>
         <v>0.70100000000000007</v>
       </c>
     </row>
     <row r="35" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I35" s="9">
+      <c r="I35" s="6">
         <v>50</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="7">
         <v>85</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="11">
         <f t="shared" si="1"/>
         <v>1.5499999999999998</v>
       </c>
     </row>
     <row r="36" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I36" s="9">
+      <c r="I36" s="6">
         <v>50</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="7">
         <v>60</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="11">
         <f t="shared" si="1"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
     <row r="37" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I37" s="9">
+      <c r="I37" s="6">
         <v>50</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="7">
         <v>64</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="10">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="11">
         <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="38" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="P38" s="14"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="P39" s="14"/>
+      <c r="P39" s="11"/>
     </row>
     <row r="40" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="P40" s="14"/>
+      <c r="P40" s="11"/>
     </row>
     <row r="41" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="P41" s="14"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="45" spans="9:16" x14ac:dyDescent="0.35">
       <c r="O45"/>
@@ -10990,12 +10575,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3D1116-BEE9-834A-8EE9-D7FE57E68E2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -11011,981 +10596,961 @@
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>0.39</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="13">
-        <f>-0.0112*B1^3+1.4085*B1^2-57.286*B1+779.39</f>
-        <v>26.060000000000173</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>71</v>
+        <v>121</v>
+      </c>
+      <c r="E1" s="10">
+        <f>-0.0064*(B1/10)^3+0.7895*(B1/10)^2-30.989*(B1/10)+410.5</f>
+        <v>409.2926294498584</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <f>B1*0.1</f>
-        <v>3</v>
+        <f>(B1/10)*0.1</f>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="29">
+        <v>153</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="17">
+        <v>50</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="23">
+        <v>68</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="18">
+        <v>45.28</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P31" si="0">I3/30*10</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" ref="Q3:Q31" si="1">O3/P3-1</f>
+        <v>1.7167999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="17">
+        <v>45</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="17">
+        <v>64</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="18">
+        <v>41.85</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="1"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="17">
+        <v>45</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="17">
+        <v>62</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="18">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="1"/>
+        <v>1.6466666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="17">
+        <v>50</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="23">
+        <v>72</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="18">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.99379999999999957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="17">
+        <v>45</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="17">
+        <v>62</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="18">
+        <v>31.39</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0926666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="17">
+        <v>50</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="23">
+        <v>70</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="18">
+        <v>30.84</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.85039999999999982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="17">
+        <v>50</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="24">
+        <v>72</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" s="21">
+        <v>28.99</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.73939999999999984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="17">
+        <v>40</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="17">
+        <v>56</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="18">
+        <v>27.51</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0632500000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="17">
+        <v>50</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="23">
+        <v>70</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="18">
+        <v>26.65</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.59899999999999975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="17">
+        <v>35</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="17">
+        <v>52</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="18">
+        <v>25.66</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="0"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1994285714285713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I13" s="17">
+        <v>45</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="20">
+        <v>62</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="21">
+        <v>25.29</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.68599999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="17">
+        <v>40</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="17">
+        <v>57</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="18">
+        <v>24.26</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.81950000000000034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="17">
+        <v>50</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="23">
+        <v>70</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.45199999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I16" s="17">
+        <v>50</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="23">
+        <v>70</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="18">
+        <v>23.52</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41119999999999979</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="17">
+        <v>40</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="17">
+        <v>60</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="18">
+        <v>21.3</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.59750000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="17">
+        <v>35</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="17">
+        <v>52</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="0"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.7571428571428569</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I19" s="17">
+        <v>45</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="17">
+        <v>62</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" s="18">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>0.36133333333333351</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="17">
         <v>30</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="29">
+      <c r="J20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="17">
         <v>45</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="30">
-        <v>53.96</v>
-      </c>
-      <c r="P2" s="13">
-        <f>I2/30*10</f>
+      <c r="M20" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O20" s="18">
+        <v>20.27</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q2" s="14">
-        <f t="shared" ref="Q2:Q31" si="0">O2/P2-1</f>
-        <v>4.3959999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I3" s="29">
+      <c r="Q20" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0270000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I21" s="17">
+        <v>30</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="17">
+        <v>44</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="18">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.94899999999999984</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I22" s="17">
+        <v>40</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="17">
+        <v>57</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" s="18">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q22" s="11">
+        <f t="shared" si="1"/>
+        <v>0.43625000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I23" s="17">
+        <v>45</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="17">
+        <v>62</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="18">
+        <v>18.46</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2306666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I24" s="17">
+        <v>40</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="17">
+        <v>56</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" s="18">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="1"/>
+        <v>0.34550000000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I25" s="17">
+        <v>35</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="17">
+        <v>52</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O25" s="18">
+        <v>17.89</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="0"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53342857142857136</v>
+      </c>
+    </row>
+    <row r="26" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="17">
+        <v>35</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="17">
         <v>50</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="35">
-        <v>68</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" s="30">
-        <v>45.28</v>
-      </c>
-      <c r="P3" s="13">
-        <f t="shared" ref="P3:P31" si="1">I3/30*10</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="M26" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26" s="18">
+        <v>17.37</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="0"/>
-        <v>1.7167999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I4" s="29">
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48885714285714288</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I27" s="17">
+        <v>30</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" s="17">
         <v>45</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="29">
-        <v>64</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="30">
-        <v>41.85</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="M27" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O27" s="18">
+        <v>16.13</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q27" s="11">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q4" s="14">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I28" s="17">
+        <v>35</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="17">
+        <v>52</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="18">
+        <v>15.37</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="0"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I5" s="29">
-        <v>45</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="29">
-        <v>62</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="O5" s="30">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="P5" s="13">
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q28" s="11">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q5" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6466666666666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I6" s="29">
-        <v>50</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L6" s="35">
-        <v>72</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="O6" s="30">
-        <v>33.229999999999997</v>
-      </c>
-      <c r="P6" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.99379999999999957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I7" s="29">
-        <v>45</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="29">
-        <v>62</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="O7" s="30">
-        <v>31.39</v>
-      </c>
-      <c r="P7" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0926666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="29">
-        <v>50</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" s="35">
-        <v>70</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="O8" s="30">
-        <v>30.84</v>
-      </c>
-      <c r="P8" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.85039999999999982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I9" s="29">
-        <v>50</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="36">
-        <v>72</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="33">
-        <v>28.99</v>
-      </c>
-      <c r="P9" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.73939999999999984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I10" s="29">
+        <v>0.31742857142857117</v>
+      </c>
+    </row>
+    <row r="29" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I29" s="17">
         <v>40</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="29">
+      <c r="J29" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="17">
         <v>56</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O10" s="30">
-        <v>27.51</v>
-      </c>
-      <c r="P10" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0632500000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I11" s="29">
-        <v>50</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="35">
-        <v>70</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="O11" s="30">
-        <v>26.65</v>
-      </c>
-      <c r="P11" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.59899999999999975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I12" s="29">
-        <v>35</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" s="29">
-        <v>52</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O12" s="30">
-        <v>25.66</v>
-      </c>
-      <c r="P12" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q12" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1994285714285713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I13" s="29">
-        <v>45</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="32">
-        <v>62</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" s="33">
-        <v>25.29</v>
-      </c>
-      <c r="P13" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.68599999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I14" s="29">
-        <v>40</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="29">
-        <v>57</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" s="30">
-        <v>24.26</v>
-      </c>
-      <c r="P14" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.81950000000000034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I15" s="29">
-        <v>50</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" s="35">
-        <v>70</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="O15" s="30">
-        <v>24.2</v>
-      </c>
-      <c r="P15" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q15" s="14">
-        <f t="shared" si="0"/>
-        <v>0.45199999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I16" s="29">
-        <v>50</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" s="35">
-        <v>70</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" s="30">
-        <v>23.52</v>
-      </c>
-      <c r="P16" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.41119999999999979</v>
-      </c>
-    </row>
-    <row r="17" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I17" s="29">
-        <v>40</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="29">
-        <v>60</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O17" s="30">
-        <v>21.3</v>
-      </c>
-      <c r="P17" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q17" s="14">
-        <f t="shared" si="0"/>
-        <v>0.59750000000000014</v>
-      </c>
-    </row>
-    <row r="18" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="29">
-        <v>35</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="29">
-        <v>52</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O18" s="30">
-        <v>20.5</v>
-      </c>
-      <c r="P18" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q18" s="14">
-        <f t="shared" si="0"/>
-        <v>0.7571428571428569</v>
-      </c>
-    </row>
-    <row r="19" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I19" s="29">
-        <v>45</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="29">
-        <v>62</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" s="30">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="P19" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q19" s="14">
-        <f t="shared" si="0"/>
-        <v>0.36133333333333351</v>
-      </c>
-    </row>
-    <row r="20" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="29">
-        <v>30</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="29">
-        <v>45</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O20" s="30">
-        <v>20.27</v>
-      </c>
-      <c r="P20" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q20" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0270000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="29">
-        <v>30</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" s="29">
-        <v>44</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O21" s="30">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="P21" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.94899999999999984</v>
-      </c>
-    </row>
-    <row r="22" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I22" s="29">
-        <v>40</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="29">
-        <v>57</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N22" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O22" s="30">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="P22" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.43625000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="29">
-        <v>45</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="29">
-        <v>62</v>
-      </c>
-      <c r="M23" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N23" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O23" s="30">
-        <v>18.46</v>
-      </c>
-      <c r="P23" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2306666666666668</v>
-      </c>
-    </row>
-    <row r="24" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I24" s="29">
-        <v>40</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" s="29">
-        <v>56</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N24" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O24" s="30">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="P24" s="13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.34550000000000014</v>
-      </c>
-    </row>
-    <row r="25" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I25" s="29">
-        <v>35</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="29">
-        <v>52</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N25" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O25" s="30">
-        <v>17.89</v>
-      </c>
-      <c r="P25" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.53342857142857136</v>
-      </c>
-    </row>
-    <row r="26" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I26" s="29">
-        <v>35</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="29">
-        <v>50</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N26" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O26" s="30">
-        <v>17.37</v>
-      </c>
-      <c r="P26" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q26" s="14">
-        <f t="shared" si="0"/>
-        <v>0.48885714285714288</v>
-      </c>
-    </row>
-    <row r="27" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I27" s="29">
-        <v>30</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L27" s="29">
-        <v>45</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O27" s="30">
-        <v>16.13</v>
-      </c>
-      <c r="P27" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q27" s="14">
-        <f t="shared" si="0"/>
-        <v>0.61299999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I28" s="29">
-        <v>35</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="29">
-        <v>52</v>
-      </c>
-      <c r="M28" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O28" s="30">
-        <v>15.37</v>
-      </c>
-      <c r="P28" s="13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q28" s="14">
-        <f t="shared" si="0"/>
-        <v>0.31742857142857117</v>
-      </c>
-    </row>
-    <row r="29" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I29" s="29">
-        <v>40</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" s="29">
-        <v>56</v>
-      </c>
-      <c r="M29" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N29" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O29" s="31">
+      <c r="M29" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O29" s="19">
         <f>29.86/2</f>
         <v>14.93</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="Q29" s="11">
         <f t="shared" si="1"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="Q29" s="14">
+        <v>0.11975000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I30" s="17">
+        <v>30</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="17">
+        <v>45</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" s="18">
+        <v>13.29</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="0"/>
-        <v>0.11975000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="9:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="29">
-        <v>30</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L30" s="29">
-        <v>45</v>
-      </c>
-      <c r="M30" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N30" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O30" s="30">
-        <v>13.29</v>
-      </c>
-      <c r="P30" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q30" s="14">
+        <v>0.32899999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="9:17" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I31" s="17">
+        <v>35</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="17">
+        <v>49</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O31" s="18">
+        <v>12.59</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="0"/>
-        <v>0.32899999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="9:17" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="I31" s="29">
-        <v>35</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" s="29">
-        <v>49</v>
-      </c>
-      <c r="M31" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N31" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="O31" s="30">
-        <v>12.59</v>
-      </c>
-      <c r="P31" s="13">
+        <v>11.666666666666668</v>
+      </c>
+      <c r="Q31" s="11">
         <f t="shared" si="1"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="Q31" s="14">
-        <f t="shared" si="0"/>
         <v>7.9142857142856959E-2</v>
       </c>
     </row>
@@ -11998,39 +11563,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D900EA-ED2B-48F0-9D89-86FA8E8492CA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B1">
         <f>sawCost+barCost+B3+B4</f>
-        <v>252.96335000000016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>733.3468749066584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B3">
-        <v>174.9374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>213.29974999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B4">
-        <v>20.590949999999999</v>
+        <v>64.224958000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -12039,12 +11610,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7FF1A96F00B548AE8FA4D86E5C3C6B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42484d4aadc485b95868b0614c9cc901">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2de6f903-a70b-4d4e-9d47-d88418a90129" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e3f4261295b63ab975c65a36ef5f926" ns2:_="">
     <xsd:import namespace="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
@@ -12188,6 +11753,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12198,22 +11769,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93490E2-E40C-41B2-8038-9CAF72FFFCDE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12231,6 +11786,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6736099F-A467-4EDF-97E1-862A5565D775}">
   <ds:schemaRefs>

--- a/cost_model/cost_model.xlsx
+++ b/cost_model/cost_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eba1ba43692f98ec/Documents/ASE6002/ModelProject/cost_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\cost_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13517" documentId="13_ncr:1_{B419944E-7C9D-4821-9DB0-661A8B92BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA0951D1-7E17-40FE-9EEC-58FEB58820FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B419944E-7C9D-4821-9DB0-661A8B92BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
   </bookViews>
   <sheets>
     <sheet name="CHAINSAW" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="sawWeight">Saw!$E$2</definedName>
     <definedName name="varCost">Sheet1!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcMode="manual"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9652,7 +9652,7 @@
         <v>120</v>
       </c>
       <c r="B2">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="s">
         <v>155</v>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="E2" s="10">
         <f>0.0408*(B2/10)^2-1.7314*(B2/10)+46.597</f>
-        <v>46.5295374568</v>
+        <v>46.52780928</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="E3">
         <f>(B2/10)*0.06</f>
-        <v>2.3400000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F3" t="s">
         <v>153</v>
@@ -10599,7 +10599,7 @@
         <v>146</v>
       </c>
       <c r="B1">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="C1" t="s">
         <v>185</v>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="E1" s="10">
         <f>-0.0064*(B1/10)^3+0.7895*(B1/10)^2-30.989*(B1/10)+410.5</f>
-        <v>409.2926294498584</v>
+        <v>409.26170279040002</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>122</v>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="E2">
         <f>(B1/10)*0.1</f>
-        <v>3.9000000000000003E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F2" t="s">
         <v>153</v>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="B1">
         <f>sawCost+barCost+B3+B4</f>
-        <v>733.3468749066584</v>
+        <v>791.56501207040003</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -11587,7 +11587,7 @@
         <v>157</v>
       </c>
       <c r="B3">
-        <v>213.29974999999999</v>
+        <v>267.64749999999998</v>
       </c>
       <c r="C3" t="s">
         <v>184</v>
@@ -11598,7 +11598,7 @@
         <v>158</v>
       </c>
       <c r="B4">
-        <v>64.224958000000001</v>
+        <v>68.128</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>

--- a/cost_model/cost_model.xlsx
+++ b/cost_model/cost_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\cost_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\Documents\ASE6002\ModelProject\cost_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B419944E-7C9D-4821-9DB0-661A8B92BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9973183F-3D45-4324-A8D0-54D49B515783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{0BE88EB2-3A1E-BD41-82F4-6438F84B674A}"/>
   </bookViews>
   <sheets>
     <sheet name="CHAINSAW" sheetId="7" r:id="rId1"/>
@@ -633,9 +633,6 @@
     <t>Compatible Bar Length (cm)</t>
   </si>
   <si>
-    <t>cm</t>
-  </si>
-  <si>
     <t>varCost</t>
   </si>
   <si>
@@ -724,6 +721,9 @@
   </si>
   <si>
     <t>meters</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B8" s="32"/>
       <c r="D8" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6542,13 +6542,13 @@
         <v>32</v>
       </c>
       <c r="D10" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="H10" s="35" t="s">
         <v>161</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -6557,10 +6557,10 @@
       </c>
       <c r="B11" s="32"/>
       <c r="D11" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" s="37">
         <f>I11*110000</f>
@@ -6576,14 +6576,14 @@
       </c>
       <c r="B12" s="32"/>
       <c r="D12" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="32">
         <f>(I36+7000)*12</f>
-        <v>307500</v>
+        <v>262800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -6594,10 +6594,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="32">
         <f>2*I11*55*2080</f>
@@ -6612,7 +6612,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="41">
         <f>(100000+150000+250000)*I14</f>
@@ -6628,17 +6628,17 @@
       </c>
       <c r="B15" s="32"/>
       <c r="D15" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="25">
         <v>13</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="43">
         <f>SUM(H11:H14)</f>
-        <v>3199100</v>
+        <v>3154400</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6655,10 +6655,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B18" s="32"/>
       <c r="G18" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="30">
         <v>8</v>
@@ -6681,14 +6681,14 @@
         <v>30</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="47">
         <f>140*H36</f>
-        <v>3500000</v>
+        <v>2800000</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H19" s="32">
         <v>3</v>
@@ -6700,13 +6700,13 @@
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H20" s="48">
         <v>7</v>
@@ -6720,7 +6720,7 @@
         <v>52</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H21" s="48">
         <v>11</v>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B22" s="32"/>
       <c r="G22" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="41">
         <v>4</v>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B23" s="32"/>
       <c r="G23" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="B25" s="32"/>
       <c r="G25" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B26" s="32"/>
       <c r="G26" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="B27" s="32"/>
       <c r="G27" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -6814,7 +6814,7 @@
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -6865,11 +6865,11 @@
         <v>0.745</v>
       </c>
       <c r="H36" s="38">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I36" s="53">
         <f>G36*H36</f>
-        <v>18625</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -6880,12 +6880,12 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G44" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G45" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H45" s="47">
         <v>1709800</v>
@@ -9625,8 +9625,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -9655,14 +9655,14 @@
         <v>0.4</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
       </c>
       <c r="E2" s="10">
-        <f>0.0408*(B2/10)^2-1.7314*(B2/10)+46.597</f>
-        <v>46.52780928</v>
+        <f>0.0408*(B2*100)^2-1.7314*(B2*100)+46.597</f>
+        <v>42.621000000000002</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -9691,8 +9691,8 @@
         <v>52</v>
       </c>
       <c r="E3">
-        <f>(B2/10)*0.06</f>
-        <v>2.3999999999999998E-3</v>
+        <f>(B2*100)/55</f>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F3" t="s">
         <v>153</v>
@@ -10579,7 +10579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3D1116-BEE9-834A-8EE9-D7FE57E68E2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -10599,17 +10599,17 @@
         <v>146</v>
       </c>
       <c r="B1">
-        <v>0.4</v>
+        <v>0.33001066910531901</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
         <v>121</v>
       </c>
       <c r="E1" s="10">
-        <f>-0.0064*(B1/10)^3+0.7895*(B1/10)^2-30.989*(B1/10)+410.5</f>
-        <v>409.26170279040002</v>
+        <f>-0.0064*(B1*100)^3+0.7895*(B1*100)^2-30.989*(B1*100)+410.5</f>
+        <v>17.631923375136012</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>122</v>
@@ -10638,8 +10638,8 @@
         <v>52</v>
       </c>
       <c r="E2">
-        <f>(B1/10)*0.1</f>
-        <v>4.0000000000000001E-3</v>
+        <f>(B1*100)*0.015</f>
+        <v>0.49501600365797854</v>
       </c>
       <c r="F2" t="s">
         <v>153</v>
@@ -11575,33 +11575,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1">
         <f>sawCost+barCost+B3+B4</f>
-        <v>791.56501207040003</v>
+        <v>467.68762216129886</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3">
-        <v>267.64749999999998</v>
+        <v>339.10668769410398</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4">
-        <v>68.128</v>
+        <v>68.328011092058901</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -11610,6 +11610,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7FF1A96F00B548AE8FA4D86E5C3C6B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42484d4aadc485b95868b0614c9cc901">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2de6f903-a70b-4d4e-9d47-d88418a90129" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e3f4261295b63ab975c65a36ef5f926" ns2:_="">
     <xsd:import namespace="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
@@ -11753,12 +11759,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11769,6 +11769,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93490E2-E40C-41B2-8038-9CAF72FFFCDE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11786,22 +11802,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA26AA80-DA6A-2C4C-8189-C87652E938E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2de6f903-a70b-4d4e-9d47-d88418a90129"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6736099F-A467-4EDF-97E1-862A5565D775}">
   <ds:schemaRefs>
